--- a/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
+++ b/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel Homework Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7545389-70CE-804A-88EB-BD105C5B633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E0D36-4975-E24E-9C0D-C190C5FC5BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25840" windowHeight="20120" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25840" windowHeight="20120" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -5345,7 +5345,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -7247,7 +7247,9 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7292,10 +7294,22 @@
       <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="D2" s="43" t="str">
+        <f>IF(C2&gt;=60,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E2" s="43" t="str">
+        <f>IF(C2&gt;=90,"A",IF(AND(C2&lt;=89,C2&gt;=80),"B",IF(AND(C2&lt;=79,C2&gt;=70),"C",IF(AND(C2&lt;=69,C2&gt;=60),"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F2" s="43" t="str">
+        <f>IF(OR(C2&gt;90,C2&lt;60),"OUTLIER","AVG")</f>
+        <v>AVG</v>
+      </c>
+      <c r="G2" s="43" t="str">
+        <f>IF(AND(B2="M",C2&gt;95),"Male Achiever",IF(AND(B2="F",C2&gt;95),"Female Achiever","NONE"))</f>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -7307,10 +7321,22 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="43" t="str">
+        <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=60,"PASS","FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E3" s="43" t="str">
+        <f>IF(C3&gt;=90,"A",IF(AND(C3&lt;=89,C3&gt;=80),"B",IF(AND(C3&lt;=79,C3&gt;=70),"C",IF(AND(C3&lt;=69,C3&gt;=60),"D","F"))))</f>
+        <v>B</v>
+      </c>
+      <c r="F3" s="43" t="str">
+        <f t="shared" ref="F3:F16" si="1">IF(OR(C3&gt;90,C3&lt;60),"OUTLIER","AVG")</f>
+        <v>AVG</v>
+      </c>
+      <c r="G3" s="43" t="str">
+        <f t="shared" ref="G3:G16" si="2">IF(AND(B3="M",C3&gt;95),"Male Achiever",IF(AND(B3="F",C3&gt;95),"Female Achiever","NONE"))</f>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -7322,10 +7348,22 @@
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="43" t="str">
+        <f>IF(C4&gt;=90,"A",IF(AND(C4&lt;=89,C4&gt;=80),"B",IF(AND(C4&lt;=79,C4&gt;=70),"C",IF(AND(C4&lt;=69,C4&gt;=60),"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F4" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G4" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Female Achiever</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -7337,10 +7375,22 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" s="43" t="str">
+        <f>IF(C5&gt;=90,"A",IF(AND(C5&lt;=89,C5&gt;=80),"B",IF(AND(C5&lt;=79,C5&gt;=70),"C",IF(AND(C5&lt;=69,C5&gt;=60),"D","F"))))</f>
+        <v>C</v>
+      </c>
+      <c r="F5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -7352,10 +7402,22 @@
       <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <f>IF(C6&gt;=90,"A",IF(AND(C6&lt;=89,C6&gt;=80),"B",IF(AND(C6&lt;=79,C6&gt;=70),"C",IF(AND(C6&lt;=69,C6&gt;=60),"D","F"))))</f>
+        <v>D</v>
+      </c>
+      <c r="F6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -7367,10 +7429,22 @@
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f>IF(C7&gt;=90,"A",IF(AND(C7&lt;=89,C7&gt;=80),"B",IF(AND(C7&lt;=79,C7&gt;=70),"C",IF(AND(C7&lt;=69,C7&gt;=60),"D","F"))))</f>
+        <v>F</v>
+      </c>
+      <c r="F7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -7382,10 +7456,22 @@
       <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <f t="shared" ref="E8:E16" si="3">IF(C8&gt;=90,"A",IF(AND(C8&lt;=89,C8&gt;=80),"B",IF(AND(C8&lt;=79,C8&gt;=70),"C",IF(AND(C8&lt;=69,C8&gt;=60),"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Male Achiever</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -7397,10 +7483,22 @@
       <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -7412,10 +7510,22 @@
       <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -7427,10 +7537,22 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -7442,10 +7564,22 @@
       <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="D12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="F12" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -7457,10 +7591,22 @@
       <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+      <c r="F13" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -7472,10 +7618,22 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="F14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -7487,10 +7645,22 @@
       <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="D15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="F15" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>AVG</v>
+      </c>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -7502,10 +7672,22 @@
       <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="D16" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E16" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="F16" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
+++ b/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel Homework Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E0D36-4975-E24E-9C0D-C190C5FC5BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6266193-F9B5-714D-983B-ECE77EA65524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25840" windowHeight="20120" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="20120" tabRatio="709" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -779,7 +779,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -787,6 +787,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1096,9 +1097,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,6 +1121,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6111,7 +6112,7 @@
     <col min="3" max="3" width="17.5" style="31" customWidth="1"/>
     <col min="4" max="5" width="14.83203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="51" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -6133,7 +6134,7 @@
       <c r="F1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6157,7 +6158,7 @@
       <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="51">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6182,7 +6183,7 @@
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="52">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6208,7 +6209,7 @@
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="52">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6234,7 +6235,7 @@
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6260,7 +6261,7 @@
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="52">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6286,7 +6287,7 @@
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6312,7 +6313,7 @@
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6338,7 +6339,7 @@
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6364,7 +6365,7 @@
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6390,7 +6391,7 @@
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="52">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6416,7 +6417,7 @@
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="52">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6442,7 +6443,7 @@
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="52">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6468,7 +6469,7 @@
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6494,7 +6495,7 @@
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="52">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -6520,7 +6521,7 @@
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="52">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -6546,7 +6547,7 @@
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -6572,7 +6573,7 @@
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="52">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -6598,7 +6599,7 @@
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="52">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -6623,7 +6624,7 @@
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -6649,7 +6650,7 @@
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="52">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -6674,7 +6675,7 @@
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="52">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -6700,7 +6701,7 @@
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -6726,7 +6727,7 @@
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="52">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -6752,7 +6753,7 @@
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="52">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
@@ -6807,19 +6808,19 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6892,10 +6893,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6939,7 +6940,7 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
@@ -6963,7 +6964,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -6993,7 +6994,7 @@
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="55" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7040,19 +7041,19 @@
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7209,10 +7210,10 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M17" s="54" t="s">
+      <c r="M17" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="53" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7247,7 +7248,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -7299,7 +7300,7 @@
         <v>PASS</v>
       </c>
       <c r="E2" s="43" t="str">
-        <f>IF(C2&gt;=90,"A",IF(AND(C2&lt;=89,C2&gt;=80),"B",IF(AND(C2&lt;=79,C2&gt;=70),"C",IF(AND(C2&lt;=69,C2&gt;=60),"D","F"))))</f>
+        <f t="shared" ref="E2:E7" si="0">IF(C2&gt;=90,"A",IF(AND(C2&lt;=89,C2&gt;=80),"B",IF(AND(C2&lt;=79,C2&gt;=70),"C",IF(AND(C2&lt;=69,C2&gt;=60),"D","F"))))</f>
         <v>A</v>
       </c>
       <c r="F2" s="43" t="str">
@@ -7322,19 +7323,19 @@
         <v>80</v>
       </c>
       <c r="D3" s="43" t="str">
-        <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=60,"PASS","FAIL")</f>
+        <f t="shared" ref="D3:D16" si="1">IF(C3&gt;=60,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="E3" s="43" t="str">
-        <f>IF(C3&gt;=90,"A",IF(AND(C3&lt;=89,C3&gt;=80),"B",IF(AND(C3&lt;=79,C3&gt;=70),"C",IF(AND(C3&lt;=69,C3&gt;=60),"D","F"))))</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="F3" s="43" t="str">
-        <f t="shared" ref="F3:F16" si="1">IF(OR(C3&gt;90,C3&lt;60),"OUTLIER","AVG")</f>
+        <f t="shared" ref="F3:F16" si="2">IF(OR(C3&gt;90,C3&lt;60),"OUTLIER","AVG")</f>
         <v>AVG</v>
       </c>
       <c r="G3" s="43" t="str">
-        <f t="shared" ref="G3:G16" si="2">IF(AND(B3="M",C3&gt;95),"Male Achiever",IF(AND(B3="F",C3&gt;95),"Female Achiever","NONE"))</f>
+        <f t="shared" ref="G3:G16" si="3">IF(AND(B3="M",C3&gt;95),"Male Achiever",IF(AND(B3="F",C3&gt;95),"Female Achiever","NONE"))</f>
         <v>NONE</v>
       </c>
     </row>
@@ -7349,19 +7350,19 @@
         <v>96</v>
       </c>
       <c r="D4" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E4" s="43" t="str">
-        <f>IF(C4&gt;=90,"A",IF(AND(C4&lt;=89,C4&gt;=80),"B",IF(AND(C4&lt;=79,C4&gt;=70),"C",IF(AND(C4&lt;=69,C4&gt;=60),"D","F"))))</f>
         <v>A</v>
       </c>
       <c r="F4" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
       <c r="G4" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Female Achiever</v>
       </c>
     </row>
@@ -7376,19 +7377,19 @@
         <v>72</v>
       </c>
       <c r="D5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E5" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E5" s="43" t="str">
-        <f>IF(C5&gt;=90,"A",IF(AND(C5&lt;=89,C5&gt;=80),"B",IF(AND(C5&lt;=79,C5&gt;=70),"C",IF(AND(C5&lt;=69,C5&gt;=60),"D","F"))))</f>
         <v>C</v>
       </c>
       <c r="F5" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
       <c r="G5" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7403,19 +7404,19 @@
         <v>69</v>
       </c>
       <c r="D6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>PASS</v>
+      </c>
+      <c r="E6" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="E6" s="43" t="str">
-        <f>IF(C6&gt;=90,"A",IF(AND(C6&lt;=89,C6&gt;=80),"B",IF(AND(C6&lt;=79,C6&gt;=70),"C",IF(AND(C6&lt;=69,C6&gt;=60),"D","F"))))</f>
         <v>D</v>
       </c>
       <c r="F6" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
       <c r="G6" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7430,19 +7431,19 @@
         <v>52</v>
       </c>
       <c r="D7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E7" s="43" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E7" s="43" t="str">
-        <f>IF(C7&gt;=90,"A",IF(AND(C7&lt;=89,C7&gt;=80),"B",IF(AND(C7&lt;=79,C7&gt;=70),"C",IF(AND(C7&lt;=69,C7&gt;=60),"D","F"))))</f>
         <v>F</v>
       </c>
       <c r="F7" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
       <c r="G7" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7457,19 +7458,19 @@
         <v>99</v>
       </c>
       <c r="D8" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E8" s="43" t="str">
-        <f t="shared" ref="E8:E16" si="3">IF(C8&gt;=90,"A",IF(AND(C8&lt;=89,C8&gt;=80),"B",IF(AND(C8&lt;=79,C8&gt;=70),"C",IF(AND(C8&lt;=69,C8&gt;=60),"D","F"))))</f>
+        <f t="shared" ref="E8:E16" si="4">IF(C8&gt;=90,"A",IF(AND(C8&lt;=89,C8&gt;=80),"B",IF(AND(C8&lt;=79,C8&gt;=70),"C",IF(AND(C8&lt;=69,C8&gt;=60),"D","F"))))</f>
         <v>A</v>
       </c>
       <c r="F8" s="43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
       <c r="G8" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Male Achiever</v>
       </c>
     </row>
@@ -7484,19 +7485,19 @@
         <v>82</v>
       </c>
       <c r="D9" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E9" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G9" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="F9" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G9" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7511,19 +7512,19 @@
         <v>67</v>
       </c>
       <c r="D10" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E10" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G10" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="F10" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G10" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7538,19 +7539,19 @@
         <v>90</v>
       </c>
       <c r="D11" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E11" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>A</v>
+      </c>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G11" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>A</v>
-      </c>
-      <c r="F11" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G11" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7565,19 +7566,19 @@
         <v>83</v>
       </c>
       <c r="D12" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E12" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="F12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G12" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="F12" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G12" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7592,19 +7593,19 @@
         <v>89</v>
       </c>
       <c r="D13" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E13" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="F13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G13" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="F13" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G13" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7619,19 +7620,19 @@
         <v>60</v>
       </c>
       <c r="D14" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E14" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="F14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G14" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="F14" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G14" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7646,19 +7647,19 @@
         <v>63</v>
       </c>
       <c r="D15" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
       <c r="E15" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="F15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G15" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="F15" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>AVG</v>
-      </c>
-      <c r="G15" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7673,19 +7674,19 @@
         <v>59</v>
       </c>
       <c r="D16" s="43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
       <c r="E16" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="F16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G16" s="43" t="str">
         <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-      <c r="F16" s="43" t="str">
-        <f t="shared" si="1"/>
-        <v>OUTLIER</v>
-      </c>
-      <c r="G16" s="43" t="str">
-        <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
     </row>
@@ -7702,7 +7703,9 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7760,7 +7763,7 @@
         <v>117</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>118</v>
@@ -7827,7 +7830,10 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36">
+        <f>SUMIF(A:A,$H$2,D:D)</f>
+        <v>3325</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -7891,9 +7897,18 @@
       <c r="G8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="36">
+        <f>SUMIFS($D:$D,$C:$C,$G8,$A:$A,$H$2)</f>
+        <v>1080</v>
+      </c>
+      <c r="I8" s="56">
+        <f>SUMIFS($E:$E,$C:$C,G8,A:A,$H$2)</f>
+        <v>96137</v>
+      </c>
+      <c r="J8" s="36">
+        <f>COUNTIFS(C:C,G8,A:A,$H$2)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -7914,9 +7929,18 @@
       <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="36"/>
+      <c r="H9" s="36">
+        <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D,$C:$C,G9,A:A,$H$2)</f>
+        <v>1568</v>
+      </c>
+      <c r="I9" s="56">
+        <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E,$C:$C,G9,A:A,$H$2)</f>
+        <v>97796</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" ref="J9:J10" si="2">COUNTIFS(C:C,G9,A:A,$H$2)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -7937,9 +7961,18 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="36"/>
+      <c r="H10" s="36">
+        <f t="shared" si="0"/>
+        <v>677</v>
+      </c>
+      <c r="I10" s="56">
+        <f t="shared" si="1"/>
+        <v>41514</v>
+      </c>
+      <c r="J10" s="36">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -14858,7 +14891,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="48" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -14868,7 +14901,7 @@
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -14944,7 +14977,7 @@
       <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">

--- a/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
+++ b/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel Homework Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93807B70-4311-CA4F-B899-9A1AA0A6E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76348BB-A6AD-DC4B-AA9F-A93319B81DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="20120" tabRatio="709" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="20120" tabRatio="709" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -3482,16 +3482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>911860</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3506,8 +3506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10736580" y="220980"/>
-          <a:ext cx="5676900" cy="4907280"/>
+          <a:off x="2372360" y="3340100"/>
+          <a:ext cx="6248400" cy="5113020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18007,7 +18007,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -18243,8 +18243,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18256,7 +18256,7 @@
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="25.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -18289,169 +18289,463 @@
       <c r="A2" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="43" t="str">
+        <f>LEFT(A2,6)</f>
+        <v>133462</v>
+      </c>
+      <c r="C2" s="43" t="str">
+        <f>LEFT(A2,SEARCH("-",A2)-1)</f>
+        <v>133462</v>
+      </c>
+      <c r="D2" s="43" t="str">
+        <f>MID(A2,SEARCH("-",A2)+1,2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E2" s="43" t="str">
+        <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A2)),"Large",IF(ISNUMBER(SEARCH("XL",A2)),"XL","other"))))</f>
+        <v>Small</v>
+      </c>
+      <c r="F2" s="43" t="str">
+        <f>RIGHT(A2,LEN(A2)-SEARCH("_",A2))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="G2" s="43" t="str">
+        <f>SUBSTITUTE(A2,"-","|",2)</f>
+        <v>133462-AA|BOS_SMALL</v>
+      </c>
+      <c r="H2" s="43" t="str">
+        <f>MID(G2,SEARCH("|",G2)+1,3)</f>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="43" t="str">
+        <f t="shared" ref="B3:B15" si="0">LEFT(A3,6)</f>
+        <v>191768</v>
+      </c>
+      <c r="C3" s="43" t="str">
+        <f t="shared" ref="C3:C15" si="1">LEFT(A3,SEARCH("-",A3)-1)</f>
+        <v>191768</v>
+      </c>
+      <c r="D3" s="43" t="str">
+        <f t="shared" ref="D3:D15" si="2">MID(A3,SEARCH("-",A3)+1,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E3" s="43" t="str">
+        <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A3)),"Large",IF(ISNUMBER(SEARCH("XL",A3)),"XL","other"))))</f>
+        <v>Medium</v>
+      </c>
+      <c r="F3" s="43" t="str">
+        <f t="shared" ref="F2:F15" si="4">RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G3" s="43" t="str">
+        <f t="shared" ref="G3:G15" si="5">SUBSTITUTE(A3,"-","|",2)</f>
+        <v>191768-AC|NYC_MEDIUM</v>
+      </c>
+      <c r="H3" s="43" t="str">
+        <f t="shared" ref="H3:H15" si="6">MID(G3,SEARCH("|",G3)+1,3)</f>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>157263</v>
+      </c>
+      <c r="C4" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>157263</v>
+      </c>
+      <c r="D4" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E4" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F4" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G4" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>157263-BB|BOS_XL</v>
+      </c>
+      <c r="H4" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>173437</v>
+      </c>
+      <c r="C5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1734372</v>
+      </c>
+      <c r="D5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E5" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Small</v>
+      </c>
+      <c r="F5" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>1734372-AA|CHI_SMALL</v>
+      </c>
+      <c r="H5" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="B6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>135351</v>
+      </c>
+      <c r="C6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>135351</v>
+      </c>
+      <c r="D6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F6" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>135351-BC|NYC_XL</v>
+      </c>
+      <c r="H6" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="B7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>143303</v>
+      </c>
+      <c r="C7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>14330305</v>
+      </c>
+      <c r="D7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F7" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>14330305-AC|BOS_LARGE</v>
+      </c>
+      <c r="H7" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="B8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>177772</v>
+      </c>
+      <c r="C8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>177772</v>
+      </c>
+      <c r="D8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F8" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>177772-BB|NYC_MEDIUM</v>
+      </c>
+      <c r="H8" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="B9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>871928</v>
+      </c>
+      <c r="C9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>87192837</v>
+      </c>
+      <c r="D9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>87192837-AB|CHI_XL</v>
+      </c>
+      <c r="H9" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="B10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>161266</v>
+      </c>
+      <c r="C10" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>161266</v>
+      </c>
+      <c r="D10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Small</v>
+      </c>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>161266-BB|CHI_SMALL</v>
+      </c>
+      <c r="H10" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="B11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>122892</v>
+      </c>
+      <c r="C11" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>122892</v>
+      </c>
+      <c r="D11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>122892-AA|NYC_MEDIUM</v>
+      </c>
+      <c r="H11" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="B12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>128919</v>
+      </c>
+      <c r="C12" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>128919</v>
+      </c>
+      <c r="D12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F12" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>128919-AC|CHI_XL</v>
+      </c>
+      <c r="H12" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>191999</v>
+      </c>
+      <c r="C13" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>191999</v>
+      </c>
+      <c r="D13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F13" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>191999-BB|BOS_LARGE</v>
+      </c>
+      <c r="H13" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="B14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>117091</v>
+      </c>
+      <c r="C14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>117091126</v>
+      </c>
+      <c r="D14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F14" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>117091126-BC|NYC_LARGE</v>
+      </c>
+      <c r="H14" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>112283</v>
+      </c>
+      <c r="C15" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>112283</v>
+      </c>
+      <c r="D15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F15" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>112283-AB|BOS_MEDIUM</v>
+      </c>
+      <c r="H15" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
+++ b/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel Homework Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76348BB-A6AD-DC4B-AA9F-A93319B81DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219654A-38B0-714E-8005-D0DEBCBD9B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="20120" tabRatio="709" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="20120" tabRatio="709" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -782,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -791,6 +791,7 @@
     <numFmt numFmtId="167" formatCode="m/d;@"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -973,7 +974,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,6 +1128,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5950,7 +5954,9 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5976,13 +5982,19 @@
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="38">
+        <f ca="1">TODAY()</f>
+        <v>44955</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="39">
+        <f ca="1">NOW()</f>
+        <v>44955.609720601853</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -6005,12 +6017,30 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="40">
+        <f ca="1">YEAR($C$4)</f>
+        <v>2023</v>
+      </c>
+      <c r="C7" s="40">
+        <f ca="1">MONTH($C$4)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <f ca="1">DAY($C$4)</f>
+        <v>29</v>
+      </c>
+      <c r="E7" s="40">
+        <f ca="1">HOUR($C$4)</f>
+        <v>14</v>
+      </c>
+      <c r="F7" s="40">
+        <f ca="1">MINUTE($C$4)</f>
+        <v>38</v>
+      </c>
+      <c r="G7" s="40">
+        <f ca="1">SECOND($C$4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -6025,7 +6055,10 @@
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="57">
+        <f ca="1">WEEKDAY(C3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
@@ -6035,32 +6068,47 @@
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="38">
+        <f ca="1">WORKDAY(C3,50)</f>
+        <v>45023</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="41">
+        <f ca="1">NETWORKDAYS(C2,C3)</f>
+        <v>2107</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="38">
+        <f ca="1">EOMONTH(C3,0)</f>
+        <v>44957</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="38">
+        <f ca="1">EOMONTH(C3,-1)+1</f>
+        <v>44927</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="38">
+        <f ca="1">EOMONTH($C$3,(-1*C7))+1</f>
+        <v>44927</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -6073,13 +6121,19 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
+      <c r="B20" s="20">
+        <v>42370</v>
+      </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
+      <c r="B21" s="20">
+        <v>42736</v>
+      </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
+      <c r="B22" s="20">
+        <v>43101</v>
+      </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="20"/>
@@ -18243,8 +18297,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18339,7 +18393,7 @@
         <v>Medium</v>
       </c>
       <c r="F3" s="43" t="str">
-        <f t="shared" ref="F2:F15" si="4">RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
+        <f t="shared" ref="F3:F15" si="4">RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
         <v>MEDIUM</v>
       </c>
       <c r="G3" s="43" t="str">

--- a/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
+++ b/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel Homework Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219654A-38B0-714E-8005-D0DEBCBD9B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931C058-FA33-124E-B8E9-66A8C83C4D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="20120" tabRatio="709" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="20120" tabRatio="709" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -782,16 +782,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="dddd"/>
+    <numFmt numFmtId="170" formatCode="dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -974,7 +973,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,7 +1059,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,16 +1106,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,16 +1118,270 @@
     <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5398,11 +5640,11 @@
       <c r="D2" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="43">
         <f>IFERROR(C2/$B2,"-")</f>
         <v>0.5273972602739726</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="43">
         <f>IFERROR(D2/$B2,"-")</f>
         <v>0.12328767123287671</v>
       </c>
@@ -5420,11 +5662,11 @@
       <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E26" si="0">IFERROR(C3/$B3,"-")</f>
         <v>0.42603550295857989</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <f t="shared" ref="F3:F26" si="1">IFERROR(D3/$B3,"-")</f>
         <v>8.8757396449704137E-2</v>
       </c>
@@ -5442,11 +5684,11 @@
       <c r="D4" s="2">
         <v>19</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>0.35678391959798994</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="43">
         <f t="shared" si="1"/>
         <v>9.5477386934673364E-2</v>
       </c>
@@ -5464,11 +5706,11 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <f t="shared" si="0"/>
         <v>0.23487544483985764</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <f t="shared" si="1"/>
         <v>3.5587188612099648E-2</v>
       </c>
@@ -5486,11 +5728,11 @@
       <c r="D6" s="2">
         <v>19</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>0.19924812030075187</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5508,11 +5750,11 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>0.30324909747292417</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="43">
         <f t="shared" si="1"/>
         <v>5.4151624548736461E-2</v>
       </c>
@@ -5530,11 +5772,11 @@
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f t="shared" si="0"/>
         <v>0.50344827586206897</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
         <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
@@ -5552,11 +5794,11 @@
       <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <f t="shared" si="0"/>
         <v>0.30396475770925108</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <f t="shared" si="1"/>
         <v>5.2863436123348019E-2</v>
       </c>
@@ -5574,11 +5816,11 @@
       <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f t="shared" si="0"/>
         <v>0.43888888888888888</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
@@ -5596,11 +5838,11 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F11" s="44" t="str">
+      <c r="F11" s="43" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -5618,11 +5860,11 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <f t="shared" si="0"/>
         <v>0.30991735537190085</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <f t="shared" si="1"/>
         <v>4.1322314049586778E-2</v>
       </c>
@@ -5640,11 +5882,11 @@
       <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
         <v>0.34883720930232559</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="43">
         <f t="shared" si="1"/>
         <v>7.441860465116279E-2</v>
       </c>
@@ -5662,11 +5904,11 @@
       <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f t="shared" si="0"/>
         <v>0.33606557377049179</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="43">
         <f t="shared" si="1"/>
         <v>6.5573770491803282E-2</v>
       </c>
@@ -5684,11 +5926,11 @@
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f t="shared" si="0"/>
         <v>0.39664804469273746</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="43">
         <f t="shared" si="1"/>
         <v>7.2625698324022353E-2</v>
       </c>
@@ -5706,11 +5948,11 @@
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <f t="shared" si="0"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="43">
         <f t="shared" si="1"/>
         <v>5.0724637681159424E-2</v>
       </c>
@@ -5728,11 +5970,11 @@
       <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f t="shared" si="0"/>
         <v>0.61417322834645671</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <f t="shared" si="1"/>
         <v>0.15748031496062992</v>
       </c>
@@ -5750,11 +5992,11 @@
       <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f t="shared" si="0"/>
         <v>0.2756183745583039</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <f t="shared" si="1"/>
         <v>6.3604240282685506E-2</v>
       </c>
@@ -5772,11 +6014,11 @@
       <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <f t="shared" si="0"/>
         <v>0.60317460317460314</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="43">
         <f t="shared" si="1"/>
         <v>0.15873015873015872</v>
       </c>
@@ -5794,11 +6036,11 @@
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>0.30916030534351147</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <f t="shared" si="1"/>
         <v>7.2519083969465645E-2</v>
       </c>
@@ -5816,11 +6058,11 @@
       <c r="D21" s="2">
         <v>14</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <f t="shared" si="0"/>
         <v>0.28222996515679444</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="43">
         <f t="shared" si="1"/>
         <v>4.878048780487805E-2</v>
       </c>
@@ -5838,11 +6080,11 @@
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <f t="shared" si="0"/>
         <v>0.30483271375464682</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="43">
         <f t="shared" si="1"/>
         <v>5.204460966542751E-2</v>
       </c>
@@ -5860,11 +6102,11 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f t="shared" si="0"/>
         <v>0.19852941176470587</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="43">
         <f t="shared" si="1"/>
         <v>3.6764705882352942E-2</v>
       </c>
@@ -5882,11 +6124,11 @@
       <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <f t="shared" si="0"/>
         <v>0.33823529411764708</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="43">
         <f t="shared" si="1"/>
         <v>5.3921568627450983E-2</v>
       </c>
@@ -5904,11 +6146,11 @@
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
@@ -5926,11 +6168,11 @@
       <c r="D26" s="2">
         <v>19</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <f t="shared" si="0"/>
         <v>0.34482758620689657</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="43">
         <f t="shared" si="1"/>
         <v>7.2796934865900387E-2</v>
       </c>
@@ -5954,7 +6196,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5974,7 +6216,7 @@
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>42005</v>
       </c>
     </row>
@@ -5982,7 +6224,7 @@
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <f ca="1">TODAY()</f>
         <v>44955</v>
       </c>
@@ -5991,9 +6233,9 @@
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <f ca="1">NOW()</f>
-        <v>44955.609720601853</v>
+        <v>44955.879836921296</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6017,29 +6259,29 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <f ca="1">YEAR($C$4)</f>
         <v>2023</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <f ca="1">MONTH($C$4)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <f ca="1">DAY($C$4)</f>
         <v>29</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <f ca="1">HOUR($C$4)</f>
-        <v>14</v>
-      </c>
-      <c r="F7" s="40">
+        <v>21</v>
+      </c>
+      <c r="F7" s="39">
         <f ca="1">MINUTE($C$4)</f>
-        <v>38</v>
-      </c>
-      <c r="G7" s="40">
+        <v>6</v>
+      </c>
+      <c r="G7" s="39">
         <f ca="1">SECOND($C$4)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6297,7 @@
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="52">
         <f ca="1">WEEKDAY(C3)</f>
         <v>1</v>
       </c>
@@ -6068,7 +6310,7 @@
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <f ca="1">WORKDAY(C3,50)</f>
         <v>45023</v>
       </c>
@@ -6077,7 +6319,7 @@
       <c r="B12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="40">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
         <v>2107</v>
       </c>
@@ -6087,7 +6329,7 @@
       <c r="B14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <f ca="1">EOMONTH(C3,0)</f>
         <v>44957</v>
       </c>
@@ -6096,7 +6338,7 @@
       <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f ca="1">EOMONTH(C3,-1)+1</f>
         <v>44927</v>
       </c>
@@ -6105,7 +6347,7 @@
       <c r="B16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <f ca="1">EOMONTH($C$3,(-1*C7))+1</f>
         <v>44927</v>
       </c>
@@ -6160,38 +6402,40 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="31" customWidth="1"/>
-    <col min="4" max="5" width="14.83203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="55" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="55" customWidth="1"/>
+    <col min="4" max="5" width="14.83203125" style="55" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="50" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="53" t="s">
         <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="56" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6199,23 +6443,23 @@
       <c r="A2" s="20">
         <v>41640</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="54">
         <v>1099</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="54">
         <v>275</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="54">
         <v>643</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="54">
         <f>B2-D2</f>
         <v>456</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="57">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6224,23 +6468,23 @@
       <c r="A3" s="20">
         <v>41671</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="54">
         <v>1204</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="54">
         <f>B3-B2</f>
         <v>105</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="54">
         <v>720</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="54">
         <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="58">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6249,24 +6493,24 @@
       <c r="A4" s="20">
         <v>41699</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="54">
         <v>1944</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:C25" si="1">B4-B3</f>
+      <c r="C4" s="54">
+        <f>B4-B3</f>
         <v>740</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="54">
         <v>964</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E25" si="2">B4-D4</f>
+      <c r="E4" s="54">
+        <f t="shared" ref="E4:E25" si="1">B4-D4</f>
         <v>980</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="58">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6275,24 +6519,24 @@
       <c r="A5" s="20">
         <v>41730</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="54">
         <v>1743</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
+      <c r="C5" s="54">
+        <f>B5-B4</f>
         <v>-201</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="54">
         <v>830</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
+      <c r="E5" s="54">
+        <f t="shared" si="1"/>
         <v>913</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="58">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6301,24 +6545,24 @@
       <c r="A6" s="20">
         <v>41760</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="54">
         <v>1609</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
+      <c r="C6" s="54">
+        <f>B6-B5</f>
         <v>-134</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="54">
         <v>910</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
+      <c r="E6" s="54">
+        <f t="shared" si="1"/>
         <v>699</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="58">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6327,24 +6571,24 @@
       <c r="A7" s="20">
         <v>41791</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="54">
         <v>1494</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
+      <c r="C7" s="54">
+        <f>B7-B6</f>
         <v>-115</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="54">
         <v>909</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
+      <c r="E7" s="54">
+        <f t="shared" si="1"/>
         <v>585</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="58">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6353,24 +6597,24 @@
       <c r="A8" s="20">
         <v>41821</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="54">
         <v>1959</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
+      <c r="C8" s="54">
+        <f>B8-B7</f>
         <v>465</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="54">
         <v>830</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
+      <c r="E8" s="54">
+        <f t="shared" si="1"/>
         <v>1129</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="58">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6379,24 +6623,24 @@
       <c r="A9" s="20">
         <v>41852</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="54">
         <v>1868</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
+      <c r="C9" s="54">
+        <f>B9-B8</f>
         <v>-91</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="54">
         <v>906</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
+      <c r="E9" s="54">
+        <f t="shared" si="1"/>
         <v>962</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="58">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6405,24 +6649,24 @@
       <c r="A10" s="20">
         <v>41883</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="54">
         <v>1162</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
+      <c r="C10" s="54">
+        <f>B10-B9</f>
         <v>-706</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="54">
         <v>606</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
+      <c r="E10" s="54">
+        <f t="shared" si="1"/>
         <v>556</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="58">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6431,24 +6675,24 @@
       <c r="A11" s="20">
         <v>41913</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="54">
         <v>1424</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="1"/>
+      <c r="C11" s="54">
+        <f>B11-B10</f>
         <v>262</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="54">
         <v>943</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
+      <c r="E11" s="54">
+        <f t="shared" si="1"/>
         <v>481</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="58">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6457,24 +6701,24 @@
       <c r="A12" s="20">
         <v>41944</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="54">
         <v>1232</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
+      <c r="C12" s="54">
+        <f>B12-B11</f>
         <v>-192</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="54">
         <v>801</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
+      <c r="E12" s="54">
+        <f t="shared" si="1"/>
         <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="58">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6483,24 +6727,24 @@
       <c r="A13" s="20">
         <v>41974</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="54">
         <v>1738</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="1"/>
+      <c r="C13" s="54">
+        <f>B13-B12</f>
         <v>506</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="54">
         <v>786</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
+      <c r="E13" s="54">
+        <f t="shared" si="1"/>
         <v>952</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="58">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6509,24 +6753,24 @@
       <c r="A14" s="20">
         <v>42005</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="54">
         <v>1435</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="1"/>
+      <c r="C14" s="54">
+        <f>B14-B13</f>
         <v>-303</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="54">
         <v>575</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="2"/>
+      <c r="E14" s="54">
+        <f t="shared" si="1"/>
         <v>860</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="58">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6535,24 +6779,24 @@
       <c r="A15" s="20">
         <v>42036</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="54">
         <v>1865</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="1"/>
+      <c r="C15" s="54">
+        <f>B15-B14</f>
         <v>430</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="54">
         <v>754</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
+      <c r="E15" s="54">
+        <f t="shared" si="1"/>
         <v>1111</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="58">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -6561,24 +6805,24 @@
       <c r="A16" s="20">
         <v>42064</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="54">
         <v>1234</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="1"/>
+      <c r="C16" s="54">
+        <f>B16-B15</f>
         <v>-631</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="54">
         <v>599</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" si="2"/>
+      <c r="E16" s="54">
+        <f t="shared" si="1"/>
         <v>635</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="58">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -6587,24 +6831,24 @@
       <c r="A17" s="20">
         <v>42095</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="54">
         <v>1577</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="1"/>
+      <c r="C17" s="54">
+        <f>B17-B16</f>
         <v>343</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="54">
         <v>940</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
+      <c r="E17" s="54">
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="58">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -6613,24 +6857,24 @@
       <c r="A18" s="20">
         <v>42125</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="54">
         <v>1983</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="1"/>
+      <c r="C18" s="54">
+        <f>B18-B17</f>
         <v>406</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="54">
         <v>954</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="2"/>
+      <c r="E18" s="54">
+        <f t="shared" si="1"/>
         <v>1029</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="58">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -6639,24 +6883,24 @@
       <c r="A19" s="20">
         <v>42156</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="54">
         <v>1356</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="1"/>
+      <c r="C19" s="54">
+        <f>B19-B18</f>
         <v>-627</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="54">
         <v>577</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="2"/>
+      <c r="E19" s="54">
+        <f t="shared" si="1"/>
         <v>779</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="58">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -6665,23 +6909,23 @@
       <c r="A20" s="20">
         <v>42186</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="54">
         <v>1874</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="1"/>
+      <c r="C20" s="54">
+        <f>B20-B19</f>
         <v>518</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="54">
         <v>865</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="54">
         <v>883</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="58">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -6690,24 +6934,24 @@
       <c r="A21" s="20">
         <v>42217</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="54">
         <v>1479</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="1"/>
+      <c r="C21" s="54">
+        <f>B21-B20</f>
         <v>-395</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="54">
         <v>588</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="2"/>
+      <c r="E21" s="54">
+        <f t="shared" si="1"/>
         <v>891</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="58">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -6716,23 +6960,23 @@
       <c r="A22" s="20">
         <v>42248</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="54">
         <v>1943</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="1"/>
+      <c r="C22" s="54">
+        <f>B22-B21</f>
         <v>464</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="54">
         <v>785</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="54">
         <v>712</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="58">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -6741,24 +6985,24 @@
       <c r="A23" s="20">
         <v>42278</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="54">
         <v>1444</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
+      <c r="C23" s="54">
+        <f>B23-B22</f>
         <v>-499</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="54">
         <v>657</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="2"/>
+      <c r="E23" s="54">
+        <f t="shared" si="1"/>
         <v>787</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="58">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -6767,24 +7011,24 @@
       <c r="A24" s="20">
         <v>42309</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="54">
         <v>1493</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" si="1"/>
+      <c r="C24" s="54">
+        <f>B24-B23</f>
         <v>49</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="54">
         <v>880</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="2"/>
+      <c r="E24" s="54">
+        <f t="shared" si="1"/>
         <v>613</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="58">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -6793,31 +7037,78 @@
       <c r="A25" s="20">
         <v>42339</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="54">
         <v>1738</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="1"/>
+      <c r="C25" s="54">
+        <f>B25-B24</f>
         <v>245</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="54">
         <v>580</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="2"/>
+      <c r="E25" s="54">
+        <f t="shared" si="1"/>
         <v>1158</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="58">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>G2&lt;0.4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:F25">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$F2="Kids"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{FD24E62B-A80D-3F49-B07D-8E6A1F99BA10}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>-200</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>200</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C2:C25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6865,19 +7156,19 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6897,7 +7188,7 @@
       <c r="E2" s="8">
         <v>22873</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="8"/>
@@ -6905,7 +7196,7 @@
       <c r="M2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="40"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -6950,10 +7241,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6978,8 +7269,8 @@
       <c r="I5" s="2"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -6997,7 +7288,7 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
@@ -7021,7 +7312,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -7051,7 +7342,7 @@
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="50" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7098,19 +7389,19 @@
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="48" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7135,7 +7426,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
@@ -7267,15 +7558,15 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="48" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.2">
@@ -7352,19 +7643,19 @@
       <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="43" t="str">
+      <c r="D2" s="42" t="str">
         <f>IF(C2&gt;=60,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="E2" s="43" t="str">
+      <c r="E2" s="42" t="str">
         <f t="shared" ref="E2:E7" si="0">IF(C2&gt;=90,"A",IF(AND(C2&lt;=89,C2&gt;=80),"B",IF(AND(C2&lt;=79,C2&gt;=70),"C",IF(AND(C2&lt;=69,C2&gt;=60),"D","F"))))</f>
         <v>A</v>
       </c>
-      <c r="F2" s="43" t="str">
+      <c r="F2" s="42" t="str">
         <f>IF(OR(C2&gt;90,C2&lt;60),"OUTLIER","AVG")</f>
         <v>AVG</v>
       </c>
-      <c r="G2" s="43" t="str">
+      <c r="G2" s="42" t="str">
         <f>IF(AND(B2="M",C2&gt;95),"Male Achiever",IF(AND(B2="F",C2&gt;95),"Female Achiever","NONE"))</f>
         <v>NONE</v>
       </c>
@@ -7379,19 +7670,19 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="43" t="str">
+      <c r="D3" s="42" t="str">
         <f t="shared" ref="D3:D16" si="1">IF(C3&gt;=60,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="E3" s="43" t="str">
+      <c r="E3" s="42" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="F3" s="43" t="str">
+      <c r="F3" s="42" t="str">
         <f t="shared" ref="F3:F16" si="2">IF(OR(C3&gt;90,C3&lt;60),"OUTLIER","AVG")</f>
         <v>AVG</v>
       </c>
-      <c r="G3" s="43" t="str">
+      <c r="G3" s="42" t="str">
         <f t="shared" ref="G3:G16" si="3">IF(AND(B3="M",C3&gt;95),"Male Achiever",IF(AND(B3="F",C3&gt;95),"Female Achiever","NONE"))</f>
         <v>NONE</v>
       </c>
@@ -7406,19 +7697,19 @@
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E4" s="43" t="str">
+      <c r="E4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
-      <c r="F4" s="43" t="str">
+      <c r="F4" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G4" s="43" t="str">
+      <c r="G4" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Female Achiever</v>
       </c>
@@ -7433,19 +7724,19 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E5" s="43" t="str">
+      <c r="E5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="F5" s="43" t="str">
+      <c r="F5" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G5" s="43" t="str">
+      <c r="G5" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7460,19 +7751,19 @@
       <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E6" s="43" t="str">
+      <c r="E6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="F6" s="43" t="str">
+      <c r="F6" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G6" s="43" t="str">
+      <c r="G6" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7487,19 +7778,19 @@
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="42" t="str">
         <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" s="43" t="str">
+      <c r="E7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="F7" s="43" t="str">
+      <c r="F7" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G7" s="43" t="str">
+      <c r="G7" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7514,19 +7805,19 @@
       <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="D8" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E8" s="42" t="str">
         <f t="shared" ref="E8:E16" si="4">IF(C8&gt;=90,"A",IF(AND(C8&lt;=89,C8&gt;=80),"B",IF(AND(C8&lt;=79,C8&gt;=70),"C",IF(AND(C8&lt;=69,C8&gt;=60),"D","F"))))</f>
         <v>A</v>
       </c>
-      <c r="F8" s="43" t="str">
+      <c r="F8" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G8" s="43" t="str">
+      <c r="G8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Male Achiever</v>
       </c>
@@ -7541,19 +7832,19 @@
       <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E9" s="43" t="str">
+      <c r="E9" s="42" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G9" s="43" t="str">
+      <c r="G9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7568,19 +7859,19 @@
       <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="D10" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E10" s="43" t="str">
+      <c r="E10" s="42" t="str">
         <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="F10" s="43" t="str">
+      <c r="F10" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G10" s="43" t="str">
+      <c r="G10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7595,19 +7886,19 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E11" s="43" t="str">
+      <c r="E11" s="42" t="str">
         <f t="shared" si="4"/>
         <v>A</v>
       </c>
-      <c r="F11" s="43" t="str">
+      <c r="F11" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G11" s="43" t="str">
+      <c r="G11" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7622,19 +7913,19 @@
       <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E12" s="43" t="str">
+      <c r="E12" s="42" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="F12" s="43" t="str">
+      <c r="F12" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G12" s="43" t="str">
+      <c r="G12" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7649,19 +7940,19 @@
       <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E13" s="43" t="str">
+      <c r="E13" s="42" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
-      <c r="F13" s="43" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G13" s="43" t="str">
+      <c r="G13" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7676,19 +7967,19 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="D14" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E14" s="43" t="str">
+      <c r="E14" s="42" t="str">
         <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="F14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7703,19 +7994,19 @@
       <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="42" t="str">
         <f t="shared" si="1"/>
         <v>PASS</v>
       </c>
-      <c r="E15" s="43" t="str">
+      <c r="E15" s="42" t="str">
         <f t="shared" si="4"/>
         <v>D</v>
       </c>
-      <c r="F15" s="43" t="str">
+      <c r="F15" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G15" s="43" t="str">
+      <c r="G15" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7730,19 +8021,19 @@
       <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="D16" s="42" t="str">
         <f t="shared" si="1"/>
         <v>FAIL</v>
       </c>
-      <c r="E16" s="43" t="str">
+      <c r="E16" s="42" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="F16" s="43" t="str">
+      <c r="F16" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G16" s="43" t="str">
+      <c r="G16" s="42" t="str">
         <f t="shared" si="3"/>
         <v>NONE</v>
       </c>
@@ -7887,7 +8178,7 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <f>SUMIF(A:A,$H$2,D:D)</f>
         <v>3325</v>
       </c>
@@ -7954,15 +8245,15 @@
       <c r="G8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <f>SUMIFS($D:$D,$C:$C,$G8,$A:$A,$H$2)</f>
         <v>1080</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="51">
         <f>SUMIFS($E:$E,$C:$C,G8,A:A,$H$2)</f>
         <v>96137</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f>COUNTIFS(C:C,G8,A:A,$H$2)</f>
         <v>9</v>
       </c>
@@ -7986,15 +8277,15 @@
       <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D,$C:$C,G9,A:A,$H$2)</f>
         <v>1568</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="51">
         <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E,$C:$C,G9,A:A,$H$2)</f>
         <v>97796</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f t="shared" ref="J9:J10" si="2">COUNTIFS(C:C,G9,A:A,$H$2)</f>
         <v>17</v>
       </c>
@@ -8018,15 +8309,15 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <f t="shared" si="0"/>
         <v>677</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="51">
         <f t="shared" si="1"/>
         <v>41514</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -9128,11 +9419,11 @@
       <c r="E2" s="6">
         <v>177884</v>
       </c>
-      <c r="F2" s="45" t="str">
+      <c r="F2" s="44" t="str">
         <f>_xlfn.XLOOKUP(B2,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AL</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A2,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24477</v>
       </c>
@@ -9154,11 +9445,11 @@
       <c r="E3" s="6">
         <v>12538.64</v>
       </c>
-      <c r="F3" s="45" t="str">
+      <c r="F3" s="44" t="str">
         <f>_xlfn.XLOOKUP(B3,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AK</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A3,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31027</v>
       </c>
@@ -9180,11 +9471,11 @@
       <c r="E4" s="6">
         <v>102612.64</v>
       </c>
-      <c r="F4" s="45" t="str">
+      <c r="F4" s="44" t="str">
         <f>_xlfn.XLOOKUP(B4,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AZ</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A4,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25878</v>
       </c>
@@ -9206,11 +9497,11 @@
       <c r="E5" s="6">
         <v>53468</v>
       </c>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="44" t="str">
         <f>_xlfn.XLOOKUP(B5,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AR</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A5,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>22750</v>
       </c>
@@ -9232,11 +9523,11 @@
       <c r="E6" s="6">
         <v>1016149.44</v>
       </c>
-      <c r="F6" s="45" t="str">
+      <c r="F6" s="44" t="str">
         <f>_xlfn.XLOOKUP(B6,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CA</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A6,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32655</v>
       </c>
@@ -9258,11 +9549,11 @@
       <c r="E7" s="6">
         <v>172050.44</v>
       </c>
-      <c r="F7" s="45" t="str">
+      <c r="F7" s="44" t="str">
         <f>_xlfn.XLOOKUP(B7,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CO</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A7,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33455</v>
       </c>
@@ -9284,11 +9575,11 @@
       <c r="E8" s="6">
         <v>102166.95</v>
       </c>
-      <c r="F8" s="45" t="str">
+      <c r="F8" s="44" t="str">
         <f>_xlfn.XLOOKUP(B8,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CT</v>
       </c>
-      <c r="G8" s="42" t="str">
+      <c r="G8" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A8,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -9310,11 +9601,11 @@
       <c r="E9" s="6">
         <v>23508</v>
       </c>
-      <c r="F9" s="45" t="str">
+      <c r="F9" s="44" t="str">
         <f>_xlfn.XLOOKUP(B9,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DC</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A9,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32166</v>
       </c>
@@ -9336,11 +9627,11 @@
       <c r="E10" s="6">
         <v>17161.77</v>
       </c>
-      <c r="F10" s="45" t="str">
+      <c r="F10" s="44" t="str">
         <f>_xlfn.XLOOKUP(B10,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DE</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A10,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>40539</v>
       </c>
@@ -9362,11 +9653,11 @@
       <c r="E11" s="6">
         <v>319647.56</v>
       </c>
-      <c r="F11" s="45" t="str">
+      <c r="F11" s="44" t="str">
         <f>_xlfn.XLOOKUP(B11,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>FL</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A11,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29048</v>
       </c>
@@ -9388,11 +9679,11 @@
       <c r="E12" s="6">
         <v>245593.59</v>
       </c>
-      <c r="F12" s="45" t="str">
+      <c r="F12" s="44" t="str">
         <f>_xlfn.XLOOKUP(B12,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>GA</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A12,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28523</v>
       </c>
@@ -9414,11 +9705,11 @@
       <c r="E13" s="6">
         <v>48461.48</v>
       </c>
-      <c r="F13" s="45" t="str">
+      <c r="F13" s="44" t="str">
         <f>_xlfn.XLOOKUP(B13,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>HI</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A13,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29034</v>
       </c>
@@ -9440,11 +9731,11 @@
       <c r="E14" s="6">
         <v>38818.589999999997</v>
       </c>
-      <c r="F14" s="45" t="str">
+      <c r="F14" s="44" t="str">
         <f>_xlfn.XLOOKUP(B14,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ID</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A14,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24506</v>
       </c>
@@ -9466,11 +9757,11 @@
       <c r="E15" s="6">
         <v>496771.72000000003</v>
       </c>
-      <c r="F15" s="45" t="str">
+      <c r="F15" s="44" t="str">
         <f>_xlfn.XLOOKUP(B15,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IL</v>
       </c>
-      <c r="G15" s="42" t="str">
+      <c r="G15" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A15,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -9492,11 +9783,11 @@
       <c r="E16" s="6">
         <v>243219.4</v>
       </c>
-      <c r="F16" s="45" t="str">
+      <c r="F16" s="44" t="str">
         <f>_xlfn.XLOOKUP(B16,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IN</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A16,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27522</v>
       </c>
@@ -9518,11 +9809,11 @@
       <c r="E17" s="6">
         <v>58526.48</v>
       </c>
-      <c r="F17" s="45" t="str">
+      <c r="F17" s="44" t="str">
         <f>_xlfn.XLOOKUP(B17,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IA</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A17,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27225</v>
       </c>
@@ -9544,11 +9835,11 @@
       <c r="E18" s="6">
         <v>107536.72</v>
       </c>
-      <c r="F18" s="45" t="str">
+      <c r="F18" s="44" t="str">
         <f>_xlfn.XLOOKUP(B18,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KS</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A18,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28432</v>
       </c>
@@ -9570,11 +9861,11 @@
       <c r="E19" s="6">
         <v>161670.76</v>
       </c>
-      <c r="F19" s="45" t="str">
+      <c r="F19" s="44" t="str">
         <f>_xlfn.XLOOKUP(B19,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KY</v>
       </c>
-      <c r="G19" s="42" t="str">
+      <c r="G19" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A19,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -9596,11 +9887,11 @@
       <c r="E20" s="6">
         <v>89379.520000000004</v>
       </c>
-      <c r="F20" s="45" t="str">
+      <c r="F20" s="44" t="str">
         <f>_xlfn.XLOOKUP(B20,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>LA</v>
       </c>
-      <c r="G20" s="42" t="str">
+      <c r="G20" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A20,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -9622,11 +9913,11 @@
       <c r="E21" s="6">
         <v>38247.689999999995</v>
       </c>
-      <c r="F21" s="45" t="str">
+      <c r="F21" s="44" t="str">
         <f>_xlfn.XLOOKUP(B21,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ME</v>
       </c>
-      <c r="G21" s="42" t="str">
+      <c r="G21" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A21,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -9648,11 +9939,11 @@
       <c r="E22" s="6">
         <v>158894.57999999999</v>
       </c>
-      <c r="F22" s="45" t="str">
+      <c r="F22" s="44" t="str">
         <f>_xlfn.XLOOKUP(B22,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MD</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A22,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>35279</v>
       </c>
@@ -9674,11 +9965,11 @@
       <c r="E23" s="6">
         <v>253963.88</v>
       </c>
-      <c r="F23" s="45" t="str">
+      <c r="F23" s="44" t="str">
         <f>_xlfn.XLOOKUP(B23,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MA</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A23,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>38864</v>
       </c>
@@ -9700,11 +9991,11 @@
       <c r="E24" s="6">
         <v>198768.88</v>
       </c>
-      <c r="F24" s="45" t="str">
+      <c r="F24" s="44" t="str">
         <f>_xlfn.XLOOKUP(B24,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MI</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A24,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29629</v>
       </c>
@@ -9726,11 +10017,11 @@
       <c r="E25" s="6">
         <v>196779.16</v>
       </c>
-      <c r="F25" s="45" t="str">
+      <c r="F25" s="44" t="str">
         <f>_xlfn.XLOOKUP(B25,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MN</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A25,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33059</v>
       </c>
@@ -9752,11 +10043,11 @@
       <c r="E26" s="6">
         <v>85339.739999999991</v>
       </c>
-      <c r="F26" s="45" t="str">
+      <c r="F26" s="44" t="str">
         <f>_xlfn.XLOOKUP(B26,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MS</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A26,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>21653</v>
       </c>
@@ -9778,11 +10069,11 @@
       <c r="E27" s="6">
         <v>111904.22</v>
       </c>
-      <c r="F27" s="45" t="str">
+      <c r="F27" s="44" t="str">
         <f>_xlfn.XLOOKUP(B27,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MO</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A27,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28221</v>
       </c>
@@ -9804,11 +10095,11 @@
       <c r="E28" s="6">
         <v>36087.800000000003</v>
       </c>
-      <c r="F28" s="45" t="str">
+      <c r="F28" s="44" t="str">
         <f>_xlfn.XLOOKUP(B28,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MT</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A28,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24044</v>
       </c>
@@ -9830,11 +10121,11 @@
       <c r="E29" s="6">
         <v>51337.89</v>
       </c>
-      <c r="F29" s="45" t="str">
+      <c r="F29" s="44" t="str">
         <f>_xlfn.XLOOKUP(B29,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NE</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A29,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28861</v>
       </c>
@@ -9856,11 +10147,11 @@
       <c r="E30" s="6">
         <v>79930.28</v>
       </c>
-      <c r="F30" s="45" t="str">
+      <c r="F30" s="44" t="str">
         <f>_xlfn.XLOOKUP(B30,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NV</v>
       </c>
-      <c r="G30" s="42">
+      <c r="G30" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A30,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30128</v>
       </c>
@@ -9882,11 +10173,11 @@
       <c r="E31" s="6">
         <v>37073.58</v>
       </c>
-      <c r="F31" s="45" t="str">
+      <c r="F31" s="44" t="str">
         <f>_xlfn.XLOOKUP(B31,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NH</v>
       </c>
-      <c r="G31" s="42">
+      <c r="G31" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A31,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33969</v>
       </c>
@@ -9908,11 +10199,11 @@
       <c r="E32" s="6">
         <v>336574</v>
       </c>
-      <c r="F32" s="45" t="str">
+      <c r="F32" s="44" t="str">
         <f>_xlfn.XLOOKUP(B32,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NJ</v>
       </c>
-      <c r="G32" s="42">
+      <c r="G32" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A32,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>38625</v>
       </c>
@@ -9934,11 +10225,11 @@
       <c r="E33" s="6">
         <v>54571.38</v>
       </c>
-      <c r="F33" s="45" t="str">
+      <c r="F33" s="44" t="str">
         <f>_xlfn.XLOOKUP(B33,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NM</v>
       </c>
-      <c r="G33" s="42">
+      <c r="G33" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A33,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>23081</v>
       </c>
@@ -9960,11 +10251,11 @@
       <c r="E34" s="6">
         <v>759058.28</v>
       </c>
-      <c r="F34" s="45" t="str">
+      <c r="F34" s="44" t="str">
         <f>_xlfn.XLOOKUP(B34,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NY</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A34,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>35878</v>
       </c>
@@ -9986,11 +10277,11 @@
       <c r="E35" s="6">
         <v>241479.38999999998</v>
       </c>
-      <c r="F35" s="45" t="str">
+      <c r="F35" s="44" t="str">
         <f>_xlfn.XLOOKUP(B35,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NC</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A35,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27308</v>
       </c>
@@ -10012,11 +10303,11 @@
       <c r="E36" s="6">
         <v>25688</v>
       </c>
-      <c r="F36" s="45" t="str">
+      <c r="F36" s="44" t="str">
         <f>_xlfn.XLOOKUP(B36,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ND</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A36,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25798</v>
       </c>
@@ -10038,11 +10329,11 @@
       <c r="E37" s="6">
         <v>227062.80000000002</v>
       </c>
-      <c r="F37" s="45" t="str">
+      <c r="F37" s="44" t="str">
         <f>_xlfn.XLOOKUP(B37,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OH</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A37,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28699</v>
       </c>
@@ -10064,11 +10355,11 @@
       <c r="E38" s="6">
         <v>69013.08</v>
       </c>
-      <c r="F38" s="45" t="str">
+      <c r="F38" s="44" t="str">
         <f>_xlfn.XLOOKUP(B38,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OK</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A38,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24945</v>
       </c>
@@ -10090,11 +10381,11 @@
       <c r="E39" s="6">
         <v>68427.98</v>
       </c>
-      <c r="F39" s="45" t="str">
+      <c r="F39" s="44" t="str">
         <f>_xlfn.XLOOKUP(B39,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OR</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A39,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28222</v>
       </c>
@@ -10116,11 +10407,11 @@
       <c r="E40" s="6">
         <v>245621.08000000002</v>
       </c>
-      <c r="F40" s="45" t="str">
+      <c r="F40" s="44" t="str">
         <f>_xlfn.XLOOKUP(B40,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>PA</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A40,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30752</v>
       </c>
@@ -10142,11 +10433,11 @@
       <c r="E41" s="6">
         <v>41932.76</v>
       </c>
-      <c r="F41" s="45" t="str">
+      <c r="F41" s="44" t="str">
         <f>_xlfn.XLOOKUP(B41,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>RI</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A41,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30256</v>
       </c>
@@ -10168,11 +10459,11 @@
       <c r="E42" s="6">
         <v>160480.48000000001</v>
       </c>
-      <c r="F42" s="45" t="str">
+      <c r="F42" s="44" t="str">
         <f>_xlfn.XLOOKUP(B42,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SC</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A42,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24840</v>
       </c>
@@ -10194,11 +10485,11 @@
       <c r="E43" s="6">
         <v>30193.760000000002</v>
       </c>
-      <c r="F43" s="45" t="str">
+      <c r="F43" s="44" t="str">
         <f>_xlfn.XLOOKUP(B43,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SD</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A43,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26566</v>
       </c>
@@ -10220,11 +10511,11 @@
       <c r="E44" s="6">
         <v>170678.49</v>
       </c>
-      <c r="F44" s="45" t="str">
+      <c r="F44" s="44" t="str">
         <f>_xlfn.XLOOKUP(B44,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TN</v>
       </c>
-      <c r="G44" s="42">
+      <c r="G44" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A44,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26808</v>
       </c>
@@ -10246,11 +10537,11 @@
       <c r="E45" s="6">
         <v>417036.4</v>
       </c>
-      <c r="F45" s="45" t="str">
+      <c r="F45" s="44" t="str">
         <f>_xlfn.XLOOKUP(B45,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TX</v>
       </c>
-      <c r="G45" s="42">
+      <c r="G45" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A45,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28472</v>
       </c>
@@ -10272,11 +10563,11 @@
       <c r="E46" s="6">
         <v>66995.069999999992</v>
       </c>
-      <c r="F46" s="45" t="str">
+      <c r="F46" s="44" t="str">
         <f>_xlfn.XLOOKUP(B46,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>UT</v>
       </c>
-      <c r="G46" s="42">
+      <c r="G46" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A46,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24033</v>
       </c>
@@ -10298,11 +10589,11 @@
       <c r="E47" s="6">
         <v>18264.809999999998</v>
       </c>
-      <c r="F47" s="45" t="str">
+      <c r="F47" s="44" t="str">
         <f>_xlfn.XLOOKUP(B47,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VT</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A47,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28756</v>
       </c>
@@ -10324,11 +10615,11 @@
       <c r="E48" s="6">
         <v>212355.44999999998</v>
       </c>
-      <c r="F48" s="45" t="str">
+      <c r="F48" s="44" t="str">
         <f>_xlfn.XLOOKUP(B48,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VA</v>
       </c>
-      <c r="G48" s="42">
+      <c r="G48" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A48,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32338</v>
       </c>
@@ -10350,11 +10641,11 @@
       <c r="E49" s="6">
         <v>176823.63</v>
       </c>
-      <c r="F49" s="45" t="str">
+      <c r="F49" s="44" t="str">
         <f>_xlfn.XLOOKUP(B49,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WA</v>
       </c>
-      <c r="G49" s="42">
+      <c r="G49" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A49,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31976</v>
       </c>
@@ -10376,11 +10667,11 @@
       <c r="E50" s="6">
         <v>72333.759999999995</v>
       </c>
-      <c r="F50" s="45" t="str">
+      <c r="F50" s="44" t="str">
         <f>_xlfn.XLOOKUP(B50,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WV</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A50,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>22862</v>
       </c>
@@ -10402,11 +10693,11 @@
       <c r="E51" s="6">
         <v>214547</v>
       </c>
-      <c r="F51" s="45" t="str">
+      <c r="F51" s="44" t="str">
         <f>_xlfn.XLOOKUP(B51,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WI</v>
       </c>
-      <c r="G51" s="42">
+      <c r="G51" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A51,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29196</v>
       </c>
@@ -10428,11 +10719,11 @@
       <c r="E52" s="6">
         <v>19751.28</v>
       </c>
-      <c r="F52" s="45" t="str">
+      <c r="F52" s="44" t="str">
         <f>_xlfn.XLOOKUP(B52,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WY</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A52,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29587</v>
       </c>
@@ -10454,11 +10745,11 @@
       <c r="E53" s="6">
         <v>135905.46</v>
       </c>
-      <c r="F53" s="45" t="str">
+      <c r="F53" s="44" t="str">
         <f>_xlfn.XLOOKUP(B53,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AL</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G53" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A53,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25128</v>
       </c>
@@ -10480,11 +10771,11 @@
       <c r="E54" s="6">
         <v>19663.05</v>
       </c>
-      <c r="F54" s="45" t="str">
+      <c r="F54" s="44" t="str">
         <f>_xlfn.XLOOKUP(B54,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AK</v>
       </c>
-      <c r="G54" s="42">
+      <c r="G54" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A54,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32151</v>
       </c>
@@ -10506,11 +10797,11 @@
       <c r="E55" s="6">
         <v>114876.68000000001</v>
       </c>
-      <c r="F55" s="45" t="str">
+      <c r="F55" s="44" t="str">
         <f>_xlfn.XLOOKUP(B55,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AZ</v>
       </c>
-      <c r="G55" s="42">
+      <c r="G55" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A55,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26183</v>
       </c>
@@ -10532,11 +10823,11 @@
       <c r="E56" s="6">
         <v>110105.16</v>
       </c>
-      <c r="F56" s="45" t="str">
+      <c r="F56" s="44" t="str">
         <f>_xlfn.XLOOKUP(B56,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AR</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A56,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>23512</v>
       </c>
@@ -10558,11 +10849,11 @@
       <c r="E57" s="6">
         <v>1076813.97</v>
       </c>
-      <c r="F57" s="45" t="str">
+      <c r="F57" s="44" t="str">
         <f>_xlfn.XLOOKUP(B57,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CA</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A57,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32996</v>
       </c>
@@ -10584,11 +10875,11 @@
       <c r="E58" s="6">
         <v>138042.09</v>
       </c>
-      <c r="F58" s="45" t="str">
+      <c r="F58" s="44" t="str">
         <f>_xlfn.XLOOKUP(B58,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CO</v>
       </c>
-      <c r="G58" s="42">
+      <c r="G58" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A58,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33276</v>
       </c>
@@ -10610,11 +10901,11 @@
       <c r="E59" s="6">
         <v>140144.16</v>
       </c>
-      <c r="F59" s="45" t="str">
+      <c r="F59" s="44" t="str">
         <f>_xlfn.XLOOKUP(B59,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CT</v>
       </c>
-      <c r="G59" s="42">
+      <c r="G59" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A59,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>42706</v>
       </c>
@@ -10636,11 +10927,11 @@
       <c r="E60" s="6">
         <v>33214.559999999998</v>
       </c>
-      <c r="F60" s="45" t="str">
+      <c r="F60" s="44" t="str">
         <f>_xlfn.XLOOKUP(B60,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DC</v>
       </c>
-      <c r="G60" s="42" t="str">
+      <c r="G60" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A60,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -10662,11 +10953,11 @@
       <c r="E61" s="6">
         <v>16605.689999999999</v>
       </c>
-      <c r="F61" s="45" t="str">
+      <c r="F61" s="44" t="str">
         <f>_xlfn.XLOOKUP(B61,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DE</v>
       </c>
-      <c r="G61" s="42">
+      <c r="G61" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A61,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>42120</v>
       </c>
@@ -10688,11 +10979,11 @@
       <c r="E62" s="6">
         <v>695886.44000000006</v>
       </c>
-      <c r="F62" s="45" t="str">
+      <c r="F62" s="44" t="str">
         <f>_xlfn.XLOOKUP(B62,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>FL</v>
       </c>
-      <c r="G62" s="42">
+      <c r="G62" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A62,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29596</v>
       </c>
@@ -10714,11 +11005,11 @@
       <c r="E63" s="6">
         <v>176587.66</v>
       </c>
-      <c r="F63" s="45" t="str">
+      <c r="F63" s="44" t="str">
         <f>_xlfn.XLOOKUP(B63,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>GA</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A63,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28821</v>
       </c>
@@ -10740,11 +11031,11 @@
       <c r="E64" s="6">
         <v>50513.599999999999</v>
       </c>
-      <c r="F64" s="45" t="str">
+      <c r="F64" s="44" t="str">
         <f>_xlfn.XLOOKUP(B64,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>HI</v>
       </c>
-      <c r="G64" s="42">
+      <c r="G64" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A64,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30001</v>
       </c>
@@ -10766,11 +11057,11 @@
       <c r="E65" s="6">
         <v>55730.48</v>
       </c>
-      <c r="F65" s="45" t="str">
+      <c r="F65" s="44" t="str">
         <f>_xlfn.XLOOKUP(B65,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ID</v>
       </c>
-      <c r="G65" s="42">
+      <c r="G65" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A65,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25057</v>
       </c>
@@ -10792,11 +11083,11 @@
       <c r="E66" s="6">
         <v>381409.01999999996</v>
       </c>
-      <c r="F66" s="45" t="str">
+      <c r="F66" s="44" t="str">
         <f>_xlfn.XLOOKUP(B66,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IL</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A66,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33404</v>
       </c>
@@ -10818,11 +11109,11 @@
       <c r="E67" s="6">
         <v>187127.07</v>
       </c>
-      <c r="F67" s="45" t="str">
+      <c r="F67" s="44" t="str">
         <f>_xlfn.XLOOKUP(B67,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IN</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A67,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28240</v>
       </c>
@@ -10844,11 +11135,11 @@
       <c r="E68" s="6">
         <v>59089.020000000004</v>
       </c>
-      <c r="F68" s="45" t="str">
+      <c r="F68" s="44" t="str">
         <f>_xlfn.XLOOKUP(B68,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IA</v>
       </c>
-      <c r="G68" s="42">
+      <c r="G68" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A68,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28280</v>
       </c>
@@ -10870,11 +11161,11 @@
       <c r="E69" s="6">
         <v>109420.08</v>
       </c>
-      <c r="F69" s="45" t="str">
+      <c r="F69" s="44" t="str">
         <f>_xlfn.XLOOKUP(B69,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KS</v>
       </c>
-      <c r="G69" s="42">
+      <c r="G69" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A69,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29141</v>
       </c>
@@ -10896,11 +11187,11 @@
       <c r="E70" s="6">
         <v>124377.65999999999</v>
       </c>
-      <c r="F70" s="45" t="str">
+      <c r="F70" s="44" t="str">
         <f>_xlfn.XLOOKUP(B70,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KY</v>
       </c>
-      <c r="G70" s="42" t="str">
+      <c r="G70" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A70,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -10922,11 +11213,11 @@
       <c r="E71" s="6">
         <v>180630.80000000002</v>
       </c>
-      <c r="F71" s="45" t="str">
+      <c r="F71" s="44" t="str">
         <f>_xlfn.XLOOKUP(B71,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>LA</v>
       </c>
-      <c r="G71" s="42">
+      <c r="G71" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A71,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25446</v>
       </c>
@@ -10948,11 +11239,11 @@
       <c r="E72" s="6">
         <v>52690.12</v>
       </c>
-      <c r="F72" s="45" t="str">
+      <c r="F72" s="44" t="str">
         <f>_xlfn.XLOOKUP(B72,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ME</v>
       </c>
-      <c r="G72" s="42">
+      <c r="G72" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A72,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27744</v>
       </c>
@@ -10974,11 +11265,11 @@
       <c r="E73" s="6">
         <v>111161.16</v>
       </c>
-      <c r="F73" s="45" t="str">
+      <c r="F73" s="44" t="str">
         <f>_xlfn.XLOOKUP(B73,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MD</v>
       </c>
-      <c r="G73" s="42" t="str">
+      <c r="G73" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A73,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -11000,11 +11291,11 @@
       <c r="E74" s="6">
         <v>192495.15</v>
       </c>
-      <c r="F74" s="45" t="str">
+      <c r="F74" s="44" t="str">
         <f>_xlfn.XLOOKUP(B74,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MA</v>
       </c>
-      <c r="G74" s="42">
+      <c r="G74" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A74,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>39244</v>
       </c>
@@ -11026,11 +11317,11 @@
       <c r="E75" s="6">
         <v>202252.4</v>
       </c>
-      <c r="F75" s="45" t="str">
+      <c r="F75" s="44" t="str">
         <f>_xlfn.XLOOKUP(B75,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MI</v>
       </c>
-      <c r="G75" s="42">
+      <c r="G75" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A75,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30296</v>
       </c>
@@ -11052,11 +11343,11 @@
       <c r="E76" s="6">
         <v>102019.16</v>
       </c>
-      <c r="F76" s="45" t="str">
+      <c r="F76" s="44" t="str">
         <f>_xlfn.XLOOKUP(B76,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MN</v>
       </c>
-      <c r="G76" s="42">
+      <c r="G76" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A76,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34071</v>
       </c>
@@ -11078,11 +11369,11 @@
       <c r="E77" s="6">
         <v>58059.32</v>
       </c>
-      <c r="F77" s="45" t="str">
+      <c r="F77" s="44" t="str">
         <f>_xlfn.XLOOKUP(B77,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MS</v>
       </c>
-      <c r="G77" s="42">
+      <c r="G77" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A77,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>22372</v>
       </c>
@@ -11104,11 +11395,11 @@
       <c r="E78" s="6">
         <v>115092.36</v>
       </c>
-      <c r="F78" s="45" t="str">
+      <c r="F78" s="44" t="str">
         <f>_xlfn.XLOOKUP(B78,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MO</v>
       </c>
-      <c r="G78" s="42">
+      <c r="G78" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A78,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28936</v>
       </c>
@@ -11130,11 +11421,11 @@
       <c r="E79" s="6">
         <v>27805.95</v>
       </c>
-      <c r="F79" s="45" t="str">
+      <c r="F79" s="44" t="str">
         <f>_xlfn.XLOOKUP(B79,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MT</v>
       </c>
-      <c r="G79" s="42">
+      <c r="G79" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A79,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25020</v>
       </c>
@@ -11156,11 +11447,11 @@
       <c r="E80" s="6">
         <v>69888.56</v>
       </c>
-      <c r="F80" s="45" t="str">
+      <c r="F80" s="44" t="str">
         <f>_xlfn.XLOOKUP(B80,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NE</v>
       </c>
-      <c r="G80" s="42">
+      <c r="G80" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A80,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29771</v>
       </c>
@@ -11182,11 +11473,11 @@
       <c r="E81" s="6">
         <v>93390.84</v>
       </c>
-      <c r="F81" s="45" t="str">
+      <c r="F81" s="44" t="str">
         <f>_xlfn.XLOOKUP(B81,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NV</v>
       </c>
-      <c r="G81" s="42">
+      <c r="G81" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A81,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30180</v>
       </c>
@@ -11208,11 +11499,11 @@
       <c r="E82" s="6">
         <v>51980</v>
       </c>
-      <c r="F82" s="45" t="str">
+      <c r="F82" s="44" t="str">
         <f>_xlfn.XLOOKUP(B82,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NH</v>
       </c>
-      <c r="G82" s="42">
+      <c r="G82" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A82,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34334</v>
       </c>
@@ -11234,11 +11525,11 @@
       <c r="E83" s="6">
         <v>260966.37</v>
       </c>
-      <c r="F83" s="45" t="str">
+      <c r="F83" s="44" t="str">
         <f>_xlfn.XLOOKUP(B83,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NJ</v>
       </c>
-      <c r="G83" s="42">
+      <c r="G83" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A83,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>39453</v>
       </c>
@@ -11260,11 +11551,11 @@
       <c r="E84" s="6">
         <v>76131.56</v>
       </c>
-      <c r="F84" s="45" t="str">
+      <c r="F84" s="44" t="str">
         <f>_xlfn.XLOOKUP(B84,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NM</v>
       </c>
-      <c r="G84" s="42">
+      <c r="G84" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A84,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>23941</v>
       </c>
@@ -11286,11 +11577,11 @@
       <c r="E85" s="6">
         <v>576812.64</v>
       </c>
-      <c r="F85" s="45" t="str">
+      <c r="F85" s="44" t="str">
         <f>_xlfn.XLOOKUP(B85,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NY</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A85,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>36043</v>
       </c>
@@ -11312,11 +11603,11 @@
       <c r="E86" s="6">
         <v>341648.84</v>
       </c>
-      <c r="F86" s="45" t="str">
+      <c r="F86" s="44" t="str">
         <f>_xlfn.XLOOKUP(B86,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NC</v>
       </c>
-      <c r="G86" s="42">
+      <c r="G86" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A86,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27711</v>
       </c>
@@ -11338,11 +11629,11 @@
       <c r="E87" s="6">
         <v>19030.98</v>
       </c>
-      <c r="F87" s="45" t="str">
+      <c r="F87" s="44" t="str">
         <f>_xlfn.XLOOKUP(B87,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ND</v>
       </c>
-      <c r="G87" s="42">
+      <c r="G87" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A87,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26982</v>
       </c>
@@ -11364,11 +11655,11 @@
       <c r="E88" s="6">
         <v>343770.33</v>
       </c>
-      <c r="F88" s="45" t="str">
+      <c r="F88" s="44" t="str">
         <f>_xlfn.XLOOKUP(B88,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OH</v>
       </c>
-      <c r="G88" s="42">
+      <c r="G88" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A88,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29405</v>
       </c>
@@ -11390,11 +11681,11 @@
       <c r="E89" s="6">
         <v>140942.12</v>
       </c>
-      <c r="F89" s="45" t="str">
+      <c r="F89" s="44" t="str">
         <f>_xlfn.XLOOKUP(B89,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OK</v>
       </c>
-      <c r="G89" s="42">
+      <c r="G89" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A89,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25575</v>
       </c>
@@ -11416,11 +11707,11 @@
       <c r="E90" s="6">
         <v>143783.44</v>
       </c>
-      <c r="F90" s="45" t="str">
+      <c r="F90" s="44" t="str">
         <f>_xlfn.XLOOKUP(B90,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OR</v>
       </c>
-      <c r="G90" s="42">
+      <c r="G90" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A90,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28731</v>
       </c>
@@ -11442,11 +11733,11 @@
       <c r="E91" s="6">
         <v>496251.68</v>
       </c>
-      <c r="F91" s="45" t="str">
+      <c r="F91" s="44" t="str">
         <f>_xlfn.XLOOKUP(B91,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>PA</v>
       </c>
-      <c r="G91" s="42">
+      <c r="G91" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A91,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31727</v>
       </c>
@@ -11468,11 +11759,11 @@
       <c r="E92" s="6">
         <v>43225.279999999999</v>
       </c>
-      <c r="F92" s="45" t="str">
+      <c r="F92" s="44" t="str">
         <f>_xlfn.XLOOKUP(B92,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>RI</v>
       </c>
-      <c r="G92" s="42">
+      <c r="G92" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A92,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31319</v>
       </c>
@@ -11494,11 +11785,11 @@
       <c r="E93" s="6">
         <v>83961.36</v>
       </c>
-      <c r="F93" s="45" t="str">
+      <c r="F93" s="44" t="str">
         <f>_xlfn.XLOOKUP(B93,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SC</v>
       </c>
-      <c r="G93" s="42">
+      <c r="G93" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A93,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25400</v>
       </c>
@@ -11520,11 +11811,11 @@
       <c r="E94" s="6">
         <v>23126.489999999998</v>
       </c>
-      <c r="F94" s="45" t="str">
+      <c r="F94" s="44" t="str">
         <f>_xlfn.XLOOKUP(B94,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SD</v>
       </c>
-      <c r="G94" s="42">
+      <c r="G94" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A94,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26894</v>
       </c>
@@ -11546,11 +11837,11 @@
       <c r="E95" s="6">
         <v>118019.24</v>
       </c>
-      <c r="F95" s="45" t="str">
+      <c r="F95" s="44" t="str">
         <f>_xlfn.XLOOKUP(B95,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TN</v>
       </c>
-      <c r="G95" s="42">
+      <c r="G95" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A95,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27671</v>
       </c>
@@ -11572,11 +11863,11 @@
       <c r="E96" s="6">
         <v>950569.24</v>
       </c>
-      <c r="F96" s="45" t="str">
+      <c r="F96" s="44" t="str">
         <f>_xlfn.XLOOKUP(B96,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TX</v>
       </c>
-      <c r="G96" s="42">
+      <c r="G96" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A96,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28551</v>
       </c>
@@ -11598,11 +11889,11 @@
       <c r="E97" s="6">
         <v>47780.78</v>
       </c>
-      <c r="F97" s="45" t="str">
+      <c r="F97" s="44" t="str">
         <f>_xlfn.XLOOKUP(B97,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>UT</v>
       </c>
-      <c r="G97" s="42">
+      <c r="G97" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A97,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24306</v>
       </c>
@@ -11624,11 +11915,11 @@
       <c r="E98" s="6">
         <v>12427.880000000001</v>
       </c>
-      <c r="F98" s="45" t="str">
+      <c r="F98" s="44" t="str">
         <f>_xlfn.XLOOKUP(B98,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VT</v>
       </c>
-      <c r="G98" s="42">
+      <c r="G98" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A98,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29567</v>
       </c>
@@ -11650,11 +11941,11 @@
       <c r="E99" s="6">
         <v>298393.08</v>
       </c>
-      <c r="F99" s="45" t="str">
+      <c r="F99" s="44" t="str">
         <f>_xlfn.XLOOKUP(B99,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VA</v>
       </c>
-      <c r="G99" s="42">
+      <c r="G99" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A99,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32922</v>
       </c>
@@ -11676,11 +11967,11 @@
       <c r="E100" s="6">
         <v>124075.76000000001</v>
       </c>
-      <c r="F100" s="45" t="str">
+      <c r="F100" s="44" t="str">
         <f>_xlfn.XLOOKUP(B100,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WA</v>
       </c>
-      <c r="G100" s="42">
+      <c r="G100" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A100,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32677</v>
       </c>
@@ -11702,11 +11993,11 @@
       <c r="E101" s="6">
         <v>36307.08</v>
       </c>
-      <c r="F101" s="45" t="str">
+      <c r="F101" s="44" t="str">
         <f>_xlfn.XLOOKUP(B101,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WV</v>
       </c>
-      <c r="G101" s="42">
+      <c r="G101" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A101,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>23688</v>
       </c>
@@ -11728,11 +12019,11 @@
       <c r="E102" s="6">
         <v>220361.04</v>
       </c>
-      <c r="F102" s="45" t="str">
+      <c r="F102" s="44" t="str">
         <f>_xlfn.XLOOKUP(B102,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WI</v>
       </c>
-      <c r="G102" s="42">
+      <c r="G102" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A102,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29923</v>
       </c>
@@ -11754,11 +12045,11 @@
       <c r="E103" s="6">
         <v>15195.869999999999</v>
       </c>
-      <c r="F103" s="45" t="str">
+      <c r="F103" s="44" t="str">
         <f>_xlfn.XLOOKUP(B103,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WY</v>
       </c>
-      <c r="G103" s="42">
+      <c r="G103" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A103,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30578</v>
       </c>
@@ -11780,11 +12071,11 @@
       <c r="E104" s="6">
         <v>143392.04999999999</v>
       </c>
-      <c r="F104" s="45" t="str">
+      <c r="F104" s="44" t="str">
         <f>_xlfn.XLOOKUP(B104,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AL</v>
       </c>
-      <c r="G104" s="42">
+      <c r="G104" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A104,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26338</v>
       </c>
@@ -11806,11 +12097,11 @@
       <c r="E105" s="6">
         <v>14204.62</v>
       </c>
-      <c r="F105" s="45" t="str">
+      <c r="F105" s="44" t="str">
         <f>_xlfn.XLOOKUP(B105,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AK</v>
       </c>
-      <c r="G105" s="42">
+      <c r="G105" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A105,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33568</v>
       </c>
@@ -11832,11 +12123,11 @@
       <c r="E106" s="6">
         <v>126580.26000000001</v>
       </c>
-      <c r="F106" s="45" t="str">
+      <c r="F106" s="44" t="str">
         <f>_xlfn.XLOOKUP(B106,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AZ</v>
       </c>
-      <c r="G106" s="42">
+      <c r="G106" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A106,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26838</v>
       </c>
@@ -11858,11 +12149,11 @@
       <c r="E107" s="6">
         <v>58318.42</v>
       </c>
-      <c r="F107" s="45" t="str">
+      <c r="F107" s="44" t="str">
         <f>_xlfn.XLOOKUP(B107,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AR</v>
       </c>
-      <c r="G107" s="42">
+      <c r="G107" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A107,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24289</v>
       </c>
@@ -11884,11 +12175,11 @@
       <c r="E108" s="6">
         <v>745079.12</v>
       </c>
-      <c r="F108" s="45" t="str">
+      <c r="F108" s="44" t="str">
         <f>_xlfn.XLOOKUP(B108,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CA</v>
       </c>
-      <c r="G108" s="42">
+      <c r="G108" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A108,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33749</v>
       </c>
@@ -11910,11 +12201,11 @@
       <c r="E109" s="6">
         <v>201167.84</v>
       </c>
-      <c r="F109" s="45" t="str">
+      <c r="F109" s="44" t="str">
         <f>_xlfn.XLOOKUP(B109,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CO</v>
       </c>
-      <c r="G109" s="42">
+      <c r="G109" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A109,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34283</v>
       </c>
@@ -11936,11 +12227,11 @@
       <c r="E110" s="6">
         <v>142963.88</v>
       </c>
-      <c r="F110" s="45" t="str">
+      <c r="F110" s="44" t="str">
         <f>_xlfn.XLOOKUP(B110,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CT</v>
       </c>
-      <c r="G110" s="42">
+      <c r="G110" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A110,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>43173</v>
       </c>
@@ -11962,11 +12253,11 @@
       <c r="E111" s="6">
         <v>26938.02</v>
       </c>
-      <c r="F111" s="45" t="str">
+      <c r="F111" s="44" t="str">
         <f>_xlfn.XLOOKUP(B111,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DC</v>
       </c>
-      <c r="G111" s="42" t="str">
+      <c r="G111" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A111,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -11988,11 +12279,11 @@
       <c r="E112" s="6">
         <v>18051.689999999999</v>
       </c>
-      <c r="F112" s="45" t="str">
+      <c r="F112" s="44" t="str">
         <f>_xlfn.XLOOKUP(B112,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DE</v>
       </c>
-      <c r="G112" s="42">
+      <c r="G112" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A112,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>48342</v>
       </c>
@@ -12014,11 +12305,11 @@
       <c r="E113" s="6">
         <v>752052.44000000006</v>
       </c>
-      <c r="F113" s="45" t="str">
+      <c r="F113" s="44" t="str">
         <f>_xlfn.XLOOKUP(B113,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>FL</v>
       </c>
-      <c r="G113" s="42">
+      <c r="G113" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A113,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30446</v>
       </c>
@@ -12040,11 +12331,11 @@
       <c r="E114" s="6">
         <v>193753.06</v>
       </c>
-      <c r="F114" s="45" t="str">
+      <c r="F114" s="44" t="str">
         <f>_xlfn.XLOOKUP(B114,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>GA</v>
       </c>
-      <c r="G114" s="42">
+      <c r="G114" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A114,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29442</v>
       </c>
@@ -12066,11 +12357,11 @@
       <c r="E115" s="6">
         <v>54412.04</v>
       </c>
-      <c r="F115" s="45" t="str">
+      <c r="F115" s="44" t="str">
         <f>_xlfn.XLOOKUP(B115,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>HI</v>
       </c>
-      <c r="G115" s="42">
+      <c r="G115" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A115,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30913</v>
       </c>
@@ -12092,11 +12383,11 @@
       <c r="E116" s="6">
         <v>47027.46</v>
       </c>
-      <c r="F116" s="45" t="str">
+      <c r="F116" s="44" t="str">
         <f>_xlfn.XLOOKUP(B116,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ID</v>
       </c>
-      <c r="G116" s="42" t="str">
+      <c r="G116" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A116,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -12118,11 +12409,11 @@
       <c r="E117" s="6">
         <v>256612.64</v>
       </c>
-      <c r="F117" s="45" t="str">
+      <c r="F117" s="44" t="str">
         <f>_xlfn.XLOOKUP(B117,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IL</v>
       </c>
-      <c r="G117" s="42" t="str">
+      <c r="G117" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A117,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -12144,11 +12435,11 @@
       <c r="E118" s="6">
         <v>259352</v>
       </c>
-      <c r="F118" s="45" t="str">
+      <c r="F118" s="44" t="str">
         <f>_xlfn.XLOOKUP(B118,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IN</v>
       </c>
-      <c r="G118" s="42">
+      <c r="G118" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A118,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28783</v>
       </c>
@@ -12170,11 +12461,11 @@
       <c r="E119" s="6">
         <v>60927</v>
       </c>
-      <c r="F119" s="45" t="str">
+      <c r="F119" s="44" t="str">
         <f>_xlfn.XLOOKUP(B119,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IA</v>
       </c>
-      <c r="G119" s="42">
+      <c r="G119" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A119,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29043</v>
       </c>
@@ -12196,11 +12487,11 @@
       <c r="E120" s="6">
         <v>85593.54</v>
       </c>
-      <c r="F120" s="45" t="str">
+      <c r="F120" s="44" t="str">
         <f>_xlfn.XLOOKUP(B120,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KS</v>
       </c>
-      <c r="G120" s="42">
+      <c r="G120" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A120,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29935</v>
       </c>
@@ -12222,11 +12513,11 @@
       <c r="E121" s="6">
         <v>130180.86</v>
       </c>
-      <c r="F121" s="45" t="str">
+      <c r="F121" s="44" t="str">
         <f>_xlfn.XLOOKUP(B121,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KY</v>
       </c>
-      <c r="G121" s="42">
+      <c r="G121" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A121,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26252</v>
       </c>
@@ -12248,11 +12539,11 @@
       <c r="E122" s="6">
         <v>136001.16</v>
       </c>
-      <c r="F122" s="45" t="str">
+      <c r="F122" s="44" t="str">
         <f>_xlfn.XLOOKUP(B122,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>LA</v>
       </c>
-      <c r="G122" s="42">
+      <c r="G122" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A122,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26100</v>
       </c>
@@ -12274,11 +12565,11 @@
       <c r="E123" s="6">
         <v>26567.22</v>
       </c>
-      <c r="F123" s="45" t="str">
+      <c r="F123" s="44" t="str">
         <f>_xlfn.XLOOKUP(B123,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ME</v>
       </c>
-      <c r="G123" s="42">
+      <c r="G123" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A123,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28831</v>
       </c>
@@ -12300,11 +12591,11 @@
       <c r="E124" s="6">
         <v>230942.08000000002</v>
       </c>
-      <c r="F124" s="45" t="str">
+      <c r="F124" s="44" t="str">
         <f>_xlfn.XLOOKUP(B124,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MD</v>
       </c>
-      <c r="G124" s="42">
+      <c r="G124" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A124,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>37331</v>
       </c>
@@ -12326,11 +12617,11 @@
       <c r="E125" s="6">
         <v>130952.58</v>
       </c>
-      <c r="F125" s="45" t="str">
+      <c r="F125" s="44" t="str">
         <f>_xlfn.XLOOKUP(B125,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MA</v>
       </c>
-      <c r="G125" s="42">
+      <c r="G125" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A125,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>39815</v>
       </c>
@@ -12352,11 +12643,11 @@
       <c r="E126" s="6">
         <v>197672.7</v>
       </c>
-      <c r="F126" s="45" t="str">
+      <c r="F126" s="44" t="str">
         <f>_xlfn.XLOOKUP(B126,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MI</v>
       </c>
-      <c r="G126" s="42">
+      <c r="G126" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A126,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30439</v>
       </c>
@@ -12378,11 +12669,11 @@
       <c r="E127" s="6">
         <v>106078.5</v>
       </c>
-      <c r="F127" s="45" t="str">
+      <c r="F127" s="44" t="str">
         <f>_xlfn.XLOOKUP(B127,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MN</v>
       </c>
-      <c r="G127" s="42">
+      <c r="G127" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A127,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34443</v>
       </c>
@@ -12404,11 +12695,11 @@
       <c r="E128" s="6">
         <v>89018.91</v>
       </c>
-      <c r="F128" s="45" t="str">
+      <c r="F128" s="44" t="str">
         <f>_xlfn.XLOOKUP(B128,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MS</v>
       </c>
-      <c r="G128" s="42">
+      <c r="G128" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A128,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>23448</v>
       </c>
@@ -12430,11 +12721,11 @@
       <c r="E129" s="6">
         <v>119778.54000000001</v>
       </c>
-      <c r="F129" s="45" t="str">
+      <c r="F129" s="44" t="str">
         <f>_xlfn.XLOOKUP(B129,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MO</v>
       </c>
-      <c r="G129" s="42">
+      <c r="G129" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A129,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29252</v>
       </c>
@@ -12456,11 +12747,11 @@
       <c r="E130" s="6">
         <v>29682.449999999997</v>
       </c>
-      <c r="F130" s="45" t="str">
+      <c r="F130" s="44" t="str">
         <f>_xlfn.XLOOKUP(B130,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MT</v>
       </c>
-      <c r="G130" s="42">
+      <c r="G130" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A130,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25920</v>
       </c>
@@ -12482,11 +12773,11 @@
       <c r="E131" s="6">
         <v>36526.82</v>
       </c>
-      <c r="F131" s="45" t="str">
+      <c r="F131" s="44" t="str">
         <f>_xlfn.XLOOKUP(B131,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NE</v>
       </c>
-      <c r="G131" s="42">
+      <c r="G131" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A131,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30758</v>
       </c>
@@ -12508,11 +12799,11 @@
       <c r="E132" s="6">
         <v>81016.53</v>
       </c>
-      <c r="F132" s="45" t="str">
+      <c r="F132" s="44" t="str">
         <f>_xlfn.XLOOKUP(B132,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NV</v>
       </c>
-      <c r="G132" s="42">
+      <c r="G132" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A132,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31266</v>
       </c>
@@ -12534,11 +12825,11 @@
       <c r="E133" s="6">
         <v>26329.440000000002</v>
       </c>
-      <c r="F133" s="45" t="str">
+      <c r="F133" s="44" t="str">
         <f>_xlfn.XLOOKUP(B133,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NH</v>
       </c>
-      <c r="G133" s="42">
+      <c r="G133" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A133,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34702</v>
       </c>
@@ -12560,11 +12851,11 @@
       <c r="E134" s="6">
         <v>263756.82</v>
       </c>
-      <c r="F134" s="45" t="str">
+      <c r="F134" s="44" t="str">
         <f>_xlfn.XLOOKUP(B134,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NJ</v>
       </c>
-      <c r="G134" s="42">
+      <c r="G134" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A134,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>40427</v>
       </c>
@@ -12586,11 +12877,11 @@
       <c r="E135" s="6">
         <v>61775.399999999994</v>
       </c>
-      <c r="F135" s="45" t="str">
+      <c r="F135" s="44" t="str">
         <f>_xlfn.XLOOKUP(B135,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NM</v>
       </c>
-      <c r="G135" s="42">
+      <c r="G135" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A135,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25541</v>
       </c>
@@ -12612,11 +12903,11 @@
       <c r="E136" s="6">
         <v>387562.08</v>
       </c>
-      <c r="F136" s="45" t="str">
+      <c r="F136" s="44" t="str">
         <f>_xlfn.XLOOKUP(B136,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NY</v>
       </c>
-      <c r="G136" s="42">
+      <c r="G136" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A136,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>36574</v>
       </c>
@@ -12638,11 +12929,11 @@
       <c r="E137" s="6">
         <v>190709.5</v>
       </c>
-      <c r="F137" s="45" t="str">
+      <c r="F137" s="44" t="str">
         <f>_xlfn.XLOOKUP(B137,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NC</v>
       </c>
-      <c r="G137" s="42">
+      <c r="G137" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A137,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28235</v>
       </c>
@@ -12664,11 +12955,11 @@
       <c r="E138" s="6">
         <v>20177.73</v>
       </c>
-      <c r="F138" s="45" t="str">
+      <c r="F138" s="44" t="str">
         <f>_xlfn.XLOOKUP(B138,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ND</v>
       </c>
-      <c r="G138" s="42">
+      <c r="G138" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A138,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29204</v>
       </c>
@@ -12690,11 +12981,11 @@
       <c r="E139" s="6">
         <v>346095.06</v>
       </c>
-      <c r="F139" s="45" t="str">
+      <c r="F139" s="44" t="str">
         <f>_xlfn.XLOOKUP(B139,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OH</v>
       </c>
-      <c r="G139" s="42">
+      <c r="G139" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A139,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29944</v>
       </c>
@@ -12716,11 +13007,11 @@
       <c r="E140" s="6">
         <v>112540.62</v>
       </c>
-      <c r="F140" s="45" t="str">
+      <c r="F140" s="44" t="str">
         <f>_xlfn.XLOOKUP(B140,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OK</v>
       </c>
-      <c r="G140" s="42">
+      <c r="G140" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A140,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26656</v>
       </c>
@@ -12742,11 +13033,11 @@
       <c r="E141" s="6">
         <v>114932.22</v>
       </c>
-      <c r="F141" s="45" t="str">
+      <c r="F141" s="44" t="str">
         <f>_xlfn.XLOOKUP(B141,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OR</v>
       </c>
-      <c r="G141" s="42">
+      <c r="G141" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A141,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29340</v>
       </c>
@@ -12768,11 +13059,11 @@
       <c r="E142" s="6">
         <v>254047.58000000002</v>
       </c>
-      <c r="F142" s="45" t="str">
+      <c r="F142" s="44" t="str">
         <f>_xlfn.XLOOKUP(B142,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>PA</v>
       </c>
-      <c r="G142" s="42">
+      <c r="G142" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A142,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31998</v>
       </c>
@@ -12794,11 +13085,11 @@
       <c r="E143" s="6">
         <v>42102.68</v>
       </c>
-      <c r="F143" s="45" t="str">
+      <c r="F143" s="44" t="str">
         <f>_xlfn.XLOOKUP(B143,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>RI</v>
       </c>
-      <c r="G143" s="42">
+      <c r="G143" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A143,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31916</v>
       </c>
@@ -12820,11 +13111,11 @@
       <c r="E144" s="6">
         <v>138760.91999999998</v>
       </c>
-      <c r="F144" s="45" t="str">
+      <c r="F144" s="44" t="str">
         <f>_xlfn.XLOOKUP(B144,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SC</v>
       </c>
-      <c r="G144" s="42">
+      <c r="G144" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A144,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26132</v>
       </c>
@@ -12846,11 +13137,11 @@
       <c r="E145" s="6">
         <v>24425.399999999998</v>
       </c>
-      <c r="F145" s="45" t="str">
+      <c r="F145" s="44" t="str">
         <f>_xlfn.XLOOKUP(B145,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SD</v>
       </c>
-      <c r="G145" s="42">
+      <c r="G145" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A145,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29234</v>
       </c>
@@ -12872,11 +13163,11 @@
       <c r="E146" s="6">
         <v>253844.4</v>
       </c>
-      <c r="F146" s="45" t="str">
+      <c r="F146" s="44" t="str">
         <f>_xlfn.XLOOKUP(B146,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TN</v>
       </c>
-      <c r="G146" s="42">
+      <c r="G146" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A146,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28455</v>
       </c>
@@ -12898,11 +13189,11 @@
       <c r="E147" s="6">
         <v>754366.83</v>
       </c>
-      <c r="F147" s="45" t="str">
+      <c r="F147" s="44" t="str">
         <f>_xlfn.XLOOKUP(B147,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TX</v>
       </c>
-      <c r="G147" s="42">
+      <c r="G147" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A147,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29372</v>
       </c>
@@ -12924,11 +13215,11 @@
       <c r="E148" s="6">
         <v>55277.700000000004</v>
       </c>
-      <c r="F148" s="45" t="str">
+      <c r="F148" s="44" t="str">
         <f>_xlfn.XLOOKUP(B148,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>UT</v>
       </c>
-      <c r="G148" s="42">
+      <c r="G148" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A148,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24977</v>
       </c>
@@ -12950,11 +13241,11 @@
       <c r="E149" s="6">
         <v>12514.82</v>
       </c>
-      <c r="F149" s="45" t="str">
+      <c r="F149" s="44" t="str">
         <f>_xlfn.XLOOKUP(B149,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VT</v>
       </c>
-      <c r="G149" s="42">
+      <c r="G149" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A149,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30740</v>
       </c>
@@ -12976,11 +13267,11 @@
       <c r="E150" s="6">
         <v>240030.72</v>
       </c>
-      <c r="F150" s="45" t="str">
+      <c r="F150" s="44" t="str">
         <f>_xlfn.XLOOKUP(B150,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VA</v>
       </c>
-      <c r="G150" s="42">
+      <c r="G150" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A150,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33671</v>
       </c>
@@ -13002,11 +13293,11 @@
       <c r="E151" s="6">
         <v>268981.59999999998</v>
       </c>
-      <c r="F151" s="45" t="str">
+      <c r="F151" s="44" t="str">
         <f>_xlfn.XLOOKUP(B151,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WA</v>
       </c>
-      <c r="G151" s="42">
+      <c r="G151" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A151,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33332</v>
       </c>
@@ -13028,11 +13319,11 @@
       <c r="E152" s="6">
         <v>37059.919999999998</v>
       </c>
-      <c r="F152" s="45" t="str">
+      <c r="F152" s="44" t="str">
         <f>_xlfn.XLOOKUP(B152,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WV</v>
       </c>
-      <c r="G152" s="42">
+      <c r="G152" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A152,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24379</v>
       </c>
@@ -13054,11 +13345,11 @@
       <c r="E153" s="6">
         <v>113739.72</v>
       </c>
-      <c r="F153" s="45" t="str">
+      <c r="F153" s="44" t="str">
         <f>_xlfn.XLOOKUP(B153,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WI</v>
       </c>
-      <c r="G153" s="42">
+      <c r="G153" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A153,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30898</v>
       </c>
@@ -13080,11 +13371,11 @@
       <c r="E154" s="6">
         <v>11272.52</v>
       </c>
-      <c r="F154" s="45" t="str">
+      <c r="F154" s="44" t="str">
         <f>_xlfn.XLOOKUP(B154,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WY</v>
       </c>
-      <c r="G154" s="42">
+      <c r="G154" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A154,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32808</v>
       </c>
@@ -13106,11 +13397,11 @@
       <c r="E155" s="6">
         <v>96440.46</v>
       </c>
-      <c r="F155" s="45" t="str">
+      <c r="F155" s="44" t="str">
         <f>_xlfn.XLOOKUP(B155,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AL</v>
       </c>
-      <c r="G155" s="42">
+      <c r="G155" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A155,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29136</v>
       </c>
@@ -13132,11 +13423,11 @@
       <c r="E156" s="6">
         <v>14628.98</v>
       </c>
-      <c r="F156" s="45" t="str">
+      <c r="F156" s="44" t="str">
         <f>_xlfn.XLOOKUP(B156,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AK</v>
       </c>
-      <c r="G156" s="42">
+      <c r="G156" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A156,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>35612</v>
       </c>
@@ -13158,11 +13449,11 @@
       <c r="E157" s="6">
         <v>262130.2</v>
       </c>
-      <c r="F157" s="45" t="str">
+      <c r="F157" s="44" t="str">
         <f>_xlfn.XLOOKUP(B157,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AZ</v>
       </c>
-      <c r="G157" s="42">
+      <c r="G157" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A157,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30267</v>
       </c>
@@ -13184,11 +13475,11 @@
       <c r="E158" s="6">
         <v>88473.93</v>
       </c>
-      <c r="F158" s="45" t="str">
+      <c r="F158" s="44" t="str">
         <f>_xlfn.XLOOKUP(B158,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>AR</v>
       </c>
-      <c r="G158" s="42">
+      <c r="G158" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A158,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>26874</v>
       </c>
@@ -13210,11 +13501,11 @@
       <c r="E159" s="6">
         <v>1141242.8999999999</v>
       </c>
-      <c r="F159" s="45" t="str">
+      <c r="F159" s="44" t="str">
         <f>_xlfn.XLOOKUP(B159,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CA</v>
       </c>
-      <c r="G159" s="42">
+      <c r="G159" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A159,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>37036</v>
       </c>
@@ -13236,11 +13527,11 @@
       <c r="E160" s="6">
         <v>155627.46</v>
       </c>
-      <c r="F160" s="45" t="str">
+      <c r="F160" s="44" t="str">
         <f>_xlfn.XLOOKUP(B160,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CO</v>
       </c>
-      <c r="G160" s="42">
+      <c r="G160" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A160,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>37946</v>
       </c>
@@ -13262,11 +13553,11 @@
       <c r="E161" s="6">
         <v>71806.94</v>
       </c>
-      <c r="F161" s="45" t="str">
+      <c r="F161" s="44" t="str">
         <f>_xlfn.XLOOKUP(B161,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>CT</v>
       </c>
-      <c r="G161" s="42">
+      <c r="G161" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A161,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>47819</v>
       </c>
@@ -13288,11 +13579,11 @@
       <c r="E162" s="6">
         <v>18341.84</v>
       </c>
-      <c r="F162" s="45" t="str">
+      <c r="F162" s="44" t="str">
         <f>_xlfn.XLOOKUP(B162,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DC</v>
       </c>
-      <c r="G162" s="42">
+      <c r="G162" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A162,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>37065</v>
       </c>
@@ -13314,11 +13605,11 @@
       <c r="E163" s="6">
         <v>25292.920000000002</v>
       </c>
-      <c r="F163" s="45" t="str">
+      <c r="F163" s="44" t="str">
         <f>_xlfn.XLOOKUP(B163,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>DE</v>
       </c>
-      <c r="G163" s="42">
+      <c r="G163" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A163,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>54985</v>
       </c>
@@ -13340,11 +13631,11 @@
       <c r="E164" s="6">
         <v>579527.03999999992</v>
       </c>
-      <c r="F164" s="45" t="str">
+      <c r="F164" s="44" t="str">
         <f>_xlfn.XLOOKUP(B164,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>FL</v>
       </c>
-      <c r="G164" s="42">
+      <c r="G164" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A164,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33219</v>
       </c>
@@ -13366,11 +13657,11 @@
       <c r="E165" s="6">
         <v>396797.8</v>
       </c>
-      <c r="F165" s="45" t="str">
+      <c r="F165" s="44" t="str">
         <f>_xlfn.XLOOKUP(B165,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>GA</v>
       </c>
-      <c r="G165" s="42">
+      <c r="G165" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A165,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31121</v>
       </c>
@@ -13392,11 +13683,11 @@
       <c r="E166" s="6">
         <v>55692.520000000004</v>
       </c>
-      <c r="F166" s="45" t="str">
+      <c r="F166" s="44" t="str">
         <f>_xlfn.XLOOKUP(B166,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>HI</v>
       </c>
-      <c r="G166" s="42">
+      <c r="G166" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A166,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34539</v>
       </c>
@@ -13418,11 +13709,11 @@
       <c r="E167" s="6">
         <v>31914.560000000001</v>
       </c>
-      <c r="F167" s="45" t="str">
+      <c r="F167" s="44" t="str">
         <f>_xlfn.XLOOKUP(B167,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ID</v>
       </c>
-      <c r="G167" s="42">
+      <c r="G167" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A167,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28158</v>
       </c>
@@ -13444,11 +13735,11 @@
       <c r="E168" s="6">
         <v>386257.64999999997</v>
       </c>
-      <c r="F168" s="45" t="str">
+      <c r="F168" s="44" t="str">
         <f>_xlfn.XLOOKUP(B168,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IL</v>
       </c>
-      <c r="G168" s="42">
+      <c r="G168" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A168,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>36120</v>
       </c>
@@ -13470,11 +13761,11 @@
       <c r="E169" s="6">
         <v>261493.36000000002</v>
       </c>
-      <c r="F169" s="45" t="str">
+      <c r="F169" s="44" t="str">
         <f>_xlfn.XLOOKUP(B169,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IN</v>
       </c>
-      <c r="G169" s="42">
+      <c r="G169" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A169,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31276</v>
       </c>
@@ -13496,11 +13787,11 @@
       <c r="E170" s="6">
         <v>122967.44</v>
       </c>
-      <c r="F170" s="45" t="str">
+      <c r="F170" s="44" t="str">
         <f>_xlfn.XLOOKUP(B170,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>IA</v>
       </c>
-      <c r="G170" s="42">
+      <c r="G170" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A170,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32315</v>
       </c>
@@ -13522,11 +13813,11 @@
       <c r="E171" s="6">
         <v>86577.15</v>
       </c>
-      <c r="F171" s="45" t="str">
+      <c r="F171" s="44" t="str">
         <f>_xlfn.XLOOKUP(B171,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KS</v>
       </c>
-      <c r="G171" s="42">
+      <c r="G171" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A171,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32836</v>
       </c>
@@ -13548,11 +13839,11 @@
       <c r="E172" s="6">
         <v>175216.6</v>
       </c>
-      <c r="F172" s="45" t="str">
+      <c r="F172" s="44" t="str">
         <f>_xlfn.XLOOKUP(B172,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>KY</v>
       </c>
-      <c r="G172" s="42">
+      <c r="G172" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A172,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28513</v>
       </c>
@@ -13574,11 +13865,11 @@
       <c r="E173" s="6">
         <v>92037.86</v>
       </c>
-      <c r="F173" s="45" t="str">
+      <c r="F173" s="44" t="str">
         <f>_xlfn.XLOOKUP(B173,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>LA</v>
       </c>
-      <c r="G173" s="42">
+      <c r="G173" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A173,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>24820</v>
       </c>
@@ -13600,11 +13891,11 @@
       <c r="E174" s="6">
         <v>39875.760000000002</v>
       </c>
-      <c r="F174" s="45" t="str">
+      <c r="F174" s="44" t="str">
         <f>_xlfn.XLOOKUP(B174,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ME</v>
       </c>
-      <c r="G174" s="42">
+      <c r="G174" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A174,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31252</v>
       </c>
@@ -13626,11 +13917,11 @@
       <c r="E175" s="6">
         <v>235382.52000000002</v>
       </c>
-      <c r="F175" s="45" t="str">
+      <c r="F175" s="44" t="str">
         <f>_xlfn.XLOOKUP(B175,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MD</v>
       </c>
-      <c r="G175" s="42">
+      <c r="G175" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A175,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>41760</v>
       </c>
@@ -13652,11 +13943,11 @@
       <c r="E176" s="6">
         <v>265845.76000000001</v>
       </c>
-      <c r="F176" s="45" t="str">
+      <c r="F176" s="44" t="str">
         <f>_xlfn.XLOOKUP(B176,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MA</v>
       </c>
-      <c r="G176" s="42">
+      <c r="G176" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A176,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>44289</v>
       </c>
@@ -13678,11 +13969,11 @@
       <c r="E177" s="6">
         <v>296500.8</v>
       </c>
-      <c r="F177" s="45" t="str">
+      <c r="F177" s="44" t="str">
         <f>_xlfn.XLOOKUP(B177,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MI</v>
       </c>
-      <c r="G177" s="42">
+      <c r="G177" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A177,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33116</v>
       </c>
@@ -13704,11 +13995,11 @@
       <c r="E178" s="6">
         <v>107582.78</v>
       </c>
-      <c r="F178" s="45" t="str">
+      <c r="F178" s="44" t="str">
         <f>_xlfn.XLOOKUP(B178,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MN</v>
       </c>
-      <c r="G178" s="42">
+      <c r="G178" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A178,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>37373</v>
       </c>
@@ -13730,11 +14021,11 @@
       <c r="E179" s="6">
         <v>119397.04000000001</v>
       </c>
-      <c r="F179" s="45" t="str">
+      <c r="F179" s="44" t="str">
         <f>_xlfn.XLOOKUP(B179,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MS</v>
       </c>
-      <c r="G179" s="42">
+      <c r="G179" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A179,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>25318</v>
       </c>
@@ -13756,11 +14047,11 @@
       <c r="E180" s="6">
         <v>120439.76000000001</v>
       </c>
-      <c r="F180" s="45" t="str">
+      <c r="F180" s="44" t="str">
         <f>_xlfn.XLOOKUP(B180,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MO</v>
       </c>
-      <c r="G180" s="42">
+      <c r="G180" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A180,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31899</v>
       </c>
@@ -13782,11 +14073,11 @@
       <c r="E181" s="6">
         <v>40205.64</v>
       </c>
-      <c r="F181" s="45" t="str">
+      <c r="F181" s="44" t="str">
         <f>_xlfn.XLOOKUP(B181,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>MT</v>
       </c>
-      <c r="G181" s="42">
+      <c r="G181" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A181,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29387</v>
       </c>
@@ -13808,11 +14099,11 @@
       <c r="E182" s="6">
         <v>55665.75</v>
       </c>
-      <c r="F182" s="45" t="str">
+      <c r="F182" s="44" t="str">
         <f>_xlfn.XLOOKUP(B182,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NE</v>
       </c>
-      <c r="G182" s="42">
+      <c r="G182" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A182,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33616</v>
       </c>
@@ -13834,11 +14125,11 @@
       <c r="E183" s="6">
         <v>110357.24</v>
       </c>
-      <c r="F183" s="45" t="str">
+      <c r="F183" s="44" t="str">
         <f>_xlfn.XLOOKUP(B183,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NV</v>
       </c>
-      <c r="G183" s="42" t="str">
+      <c r="G183" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A183,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -13860,11 +14151,11 @@
       <c r="E184" s="6">
         <v>52828.72</v>
       </c>
-      <c r="F184" s="45" t="str">
+      <c r="F184" s="44" t="str">
         <f>_xlfn.XLOOKUP(B184,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NH</v>
       </c>
-      <c r="G184" s="42">
+      <c r="G184" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A184,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>38408</v>
       </c>
@@ -13886,11 +14177,11 @@
       <c r="E185" s="6">
         <v>177291.80000000002</v>
       </c>
-      <c r="F185" s="45" t="str">
+      <c r="F185" s="44" t="str">
         <f>_xlfn.XLOOKUP(B185,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NJ</v>
       </c>
-      <c r="G185" s="42" t="str">
+      <c r="G185" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A185,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -13912,11 +14203,11 @@
       <c r="E186" s="6">
         <v>83421.52</v>
       </c>
-      <c r="F186" s="45" t="str">
+      <c r="F186" s="44" t="str">
         <f>_xlfn.XLOOKUP(B186,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NM</v>
       </c>
-      <c r="G186" s="42">
+      <c r="G186" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A186,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27644</v>
       </c>
@@ -13938,11 +14229,11 @@
       <c r="E187" s="6">
         <v>587107.82999999996</v>
       </c>
-      <c r="F187" s="45" t="str">
+      <c r="F187" s="44" t="str">
         <f>_xlfn.XLOOKUP(B187,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NY</v>
       </c>
-      <c r="G187" s="42" t="str">
+      <c r="G187" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A187,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -13964,11 +14255,11 @@
       <c r="E188" s="6">
         <v>195041.46</v>
       </c>
-      <c r="F188" s="45" t="str">
+      <c r="F188" s="44" t="str">
         <f>_xlfn.XLOOKUP(B188,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>NC</v>
       </c>
-      <c r="G188" s="42">
+      <c r="G188" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A188,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>30553</v>
       </c>
@@ -13990,11 +14281,11 @@
       <c r="E189" s="6">
         <v>27985.119999999999</v>
       </c>
-      <c r="F189" s="45" t="str">
+      <c r="F189" s="44" t="str">
         <f>_xlfn.XLOOKUP(B189,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>ND</v>
       </c>
-      <c r="G189" s="42">
+      <c r="G189" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A189,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31395</v>
       </c>
@@ -14016,11 +14307,11 @@
       <c r="E190" s="6">
         <v>230884.5</v>
       </c>
-      <c r="F190" s="45" t="str">
+      <c r="F190" s="44" t="str">
         <f>_xlfn.XLOOKUP(B190,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OH</v>
       </c>
-      <c r="G190" s="42">
+      <c r="G190" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A190,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32478</v>
       </c>
@@ -14042,11 +14333,11 @@
       <c r="E191" s="6">
         <v>152592.80000000002</v>
       </c>
-      <c r="F191" s="45" t="str">
+      <c r="F191" s="44" t="str">
         <f>_xlfn.XLOOKUP(B191,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OK</v>
       </c>
-      <c r="G191" s="42">
+      <c r="G191" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A191,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>29330</v>
       </c>
@@ -14068,11 +14359,11 @@
       <c r="E192" s="6">
         <v>77987.06</v>
       </c>
-      <c r="F192" s="45" t="str">
+      <c r="F192" s="44" t="str">
         <f>_xlfn.XLOOKUP(B192,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>OR</v>
       </c>
-      <c r="G192" s="42">
+      <c r="G192" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A192,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32103</v>
       </c>
@@ -14094,11 +14385,11 @@
       <c r="E193" s="6">
         <v>382906.07999999996</v>
       </c>
-      <c r="F193" s="45" t="str">
+      <c r="F193" s="44" t="str">
         <f>_xlfn.XLOOKUP(B193,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>PA</v>
       </c>
-      <c r="G193" s="42">
+      <c r="G193" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A193,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>34897</v>
       </c>
@@ -14120,11 +14411,11 @@
       <c r="E194" s="6">
         <v>31508.76</v>
       </c>
-      <c r="F194" s="45" t="str">
+      <c r="F194" s="44" t="str">
         <f>_xlfn.XLOOKUP(B194,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>RI</v>
       </c>
-      <c r="G194" s="42">
+      <c r="G194" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A194,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>36153</v>
       </c>
@@ -14146,11 +14437,11 @@
       <c r="E195" s="6">
         <v>141711.69</v>
       </c>
-      <c r="F195" s="45" t="str">
+      <c r="F195" s="44" t="str">
         <f>_xlfn.XLOOKUP(B195,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SC</v>
       </c>
-      <c r="G195" s="42">
+      <c r="G195" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A195,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>28352</v>
       </c>
@@ -14172,11 +14463,11 @@
       <c r="E196" s="6">
         <v>33334.160000000003</v>
       </c>
-      <c r="F196" s="45" t="str">
+      <c r="F196" s="44" t="str">
         <f>_xlfn.XLOOKUP(B196,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>SD</v>
       </c>
-      <c r="G196" s="42">
+      <c r="G196" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A196,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31614</v>
       </c>
@@ -14198,11 +14489,11 @@
       <c r="E197" s="6">
         <v>258249.72</v>
       </c>
-      <c r="F197" s="45" t="str">
+      <c r="F197" s="44" t="str">
         <f>_xlfn.XLOOKUP(B197,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TN</v>
       </c>
-      <c r="G197" s="42">
+      <c r="G197" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A197,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>31107</v>
       </c>
@@ -14224,11 +14515,11 @@
       <c r="E198" s="6">
         <v>1042368.12</v>
       </c>
-      <c r="F198" s="45" t="str">
+      <c r="F198" s="44" t="str">
         <f>_xlfn.XLOOKUP(B198,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>TX</v>
       </c>
-      <c r="G198" s="42">
+      <c r="G198" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A198,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>32462</v>
       </c>
@@ -14250,11 +14541,11 @@
       <c r="E199" s="6">
         <v>114211.48</v>
       </c>
-      <c r="F199" s="45" t="str">
+      <c r="F199" s="44" t="str">
         <f>_xlfn.XLOOKUP(B199,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>UT</v>
       </c>
-      <c r="G199" s="42" t="str">
+      <c r="G199" s="41" t="str">
         <f>IFERROR(_xlfn.XLOOKUP(A199,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>No Income Data</v>
       </c>
@@ -14276,11 +14567,11 @@
       <c r="E200" s="6">
         <v>25040.440000000002</v>
       </c>
-      <c r="F200" s="45" t="str">
+      <c r="F200" s="44" t="str">
         <f>_xlfn.XLOOKUP(B200,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VT</v>
       </c>
-      <c r="G200" s="42">
+      <c r="G200" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A200,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33327</v>
       </c>
@@ -14302,11 +14593,11 @@
       <c r="E201" s="6">
         <v>163717.34</v>
       </c>
-      <c r="F201" s="45" t="str">
+      <c r="F201" s="44" t="str">
         <f>_xlfn.XLOOKUP(B201,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>VA</v>
       </c>
-      <c r="G201" s="42">
+      <c r="G201" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A201,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>38390</v>
       </c>
@@ -14328,11 +14619,11 @@
       <c r="E202" s="6">
         <v>137940.24</v>
       </c>
-      <c r="F202" s="45" t="str">
+      <c r="F202" s="44" t="str">
         <f>_xlfn.XLOOKUP(B202,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WA</v>
       </c>
-      <c r="G202" s="42">
+      <c r="G202" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A202,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>35409</v>
       </c>
@@ -14354,11 +14645,11 @@
       <c r="E203" s="6">
         <v>74216.52</v>
       </c>
-      <c r="F203" s="45" t="str">
+      <c r="F203" s="44" t="str">
         <f>_xlfn.XLOOKUP(B203,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WV</v>
       </c>
-      <c r="G203" s="42">
+      <c r="G203" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A203,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>27215</v>
       </c>
@@ -14380,11 +14671,11 @@
       <c r="E204" s="6">
         <v>114527.96</v>
       </c>
-      <c r="F204" s="45" t="str">
+      <c r="F204" s="44" t="str">
         <f>_xlfn.XLOOKUP(B204,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WI</v>
       </c>
-      <c r="G204" s="42">
+      <c r="G204" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A204,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>33565</v>
       </c>
@@ -14406,11 +14697,11 @@
       <c r="E205" s="6">
         <v>11528.24</v>
       </c>
-      <c r="F205" s="45" t="str">
+      <c r="F205" s="44" t="str">
         <f>_xlfn.XLOOKUP(B205,'State Abbreviations'!A:A,'State Abbreviations'!B:B)</f>
         <v>WY</v>
       </c>
-      <c r="G205" s="42">
+      <c r="G205" s="41">
         <f>IFERROR(_xlfn.XLOOKUP(A205,'State Income (2001-2004)'!A:A,'State Income (2001-2004)'!D:D),"No Income Data")</f>
         <v>36778</v>
       </c>
@@ -17758,7 +18049,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="47" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -17768,7 +18059,7 @@
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -17794,7 +18085,7 @@
       <c r="F2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>2009</v>
       </c>
     </row>
@@ -17814,7 +18105,7 @@
       <c r="F3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17848,7 +18139,7 @@
       <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <f>INDEX($B$2:$D$18,MATCH($G$2,$A$2:$A$18,0),MATCH($G$3,$B$1:$D$1,0))</f>
         <v>31634</v>
       </c>
@@ -18067,14 +18358,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="33" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -18083,7 +18374,7 @@
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>42370</v>
       </c>
       <c r="B2" s="2">
@@ -18092,13 +18383,13 @@
       <c r="C2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <f>COUNTA(A:A)-1</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>42371</v>
       </c>
       <c r="B3" s="2">
@@ -18107,7 +18398,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>42372</v>
       </c>
       <c r="B4" s="2">
@@ -18116,13 +18407,13 @@
       <c r="C4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <f ca="1">OFFSET(A1,COUNTA(A:A)-1,0,1,1)</f>
         <v>42389</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>42373</v>
       </c>
       <c r="B5" s="2">
@@ -18131,7 +18422,7 @@
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>42374</v>
       </c>
       <c r="B6" s="2">
@@ -18140,22 +18431,22 @@
       <c r="C6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0)</f>
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>42375</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>42376</v>
       </c>
       <c r="B8" s="2">
@@ -18164,23 +18455,23 @@
       <c r="C8" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f ca="1">SUM(OFFSET(B1,0,0,COUNTA(B:B),1))</f>
         <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>42377</v>
       </c>
       <c r="B9" s="2">
         <v>53</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="35"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>42378</v>
       </c>
       <c r="B10" s="2">
@@ -18189,13 +18480,13 @@
       <c r="C10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <f ca="1">SUM(OFFSET(B1,0,0,COUNTA(B:B)-1,1))</f>
         <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>42379</v>
       </c>
       <c r="B11" s="2">
@@ -18204,7 +18495,7 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>42380</v>
       </c>
       <c r="B12" s="2">
@@ -18212,7 +18503,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>42381</v>
       </c>
       <c r="B13" s="2">
@@ -18220,7 +18511,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>42382</v>
       </c>
       <c r="B14" s="2">
@@ -18228,7 +18519,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>42383</v>
       </c>
       <c r="B15" s="2">
@@ -18236,7 +18527,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>42384</v>
       </c>
       <c r="B16" s="2">
@@ -18244,7 +18535,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>42385</v>
       </c>
       <c r="B17" s="2">
@@ -18252,7 +18543,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>42386</v>
       </c>
       <c r="B18" s="2">
@@ -18260,7 +18551,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>42387</v>
       </c>
       <c r="B19" s="2">
@@ -18268,7 +18559,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>42388</v>
       </c>
       <c r="B20" s="2">
@@ -18276,7 +18567,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>42389</v>
       </c>
       <c r="B21" s="2">
@@ -18343,31 +18634,31 @@
       <c r="A2" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="42" t="str">
         <f>LEFT(A2,6)</f>
         <v>133462</v>
       </c>
-      <c r="C2" s="43" t="str">
+      <c r="C2" s="42" t="str">
         <f>LEFT(A2,SEARCH("-",A2)-1)</f>
         <v>133462</v>
       </c>
-      <c r="D2" s="43" t="str">
+      <c r="D2" s="42" t="str">
         <f>MID(A2,SEARCH("-",A2)+1,2)</f>
         <v>AA</v>
       </c>
-      <c r="E2" s="43" t="str">
+      <c r="E2" s="42" t="str">
         <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A2)),"Large",IF(ISNUMBER(SEARCH("XL",A2)),"XL","other"))))</f>
         <v>Small</v>
       </c>
-      <c r="F2" s="43" t="str">
+      <c r="F2" s="42" t="str">
         <f>RIGHT(A2,LEN(A2)-SEARCH("_",A2))</f>
         <v>SMALL</v>
       </c>
-      <c r="G2" s="43" t="str">
+      <c r="G2" s="42" t="str">
         <f>SUBSTITUTE(A2,"-","|",2)</f>
         <v>133462-AA|BOS_SMALL</v>
       </c>
-      <c r="H2" s="43" t="str">
+      <c r="H2" s="42" t="str">
         <f>MID(G2,SEARCH("|",G2)+1,3)</f>
         <v>BOS</v>
       </c>
@@ -18376,31 +18667,31 @@
       <c r="A3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="42" t="str">
         <f t="shared" ref="B3:B15" si="0">LEFT(A3,6)</f>
         <v>191768</v>
       </c>
-      <c r="C3" s="43" t="str">
+      <c r="C3" s="42" t="str">
         <f t="shared" ref="C3:C15" si="1">LEFT(A3,SEARCH("-",A3)-1)</f>
         <v>191768</v>
       </c>
-      <c r="D3" s="43" t="str">
+      <c r="D3" s="42" t="str">
         <f t="shared" ref="D3:D15" si="2">MID(A3,SEARCH("-",A3)+1,2)</f>
         <v>AC</v>
       </c>
-      <c r="E3" s="43" t="str">
+      <c r="E3" s="42" t="str">
         <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A3)),"Large",IF(ISNUMBER(SEARCH("XL",A3)),"XL","other"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F3" s="43" t="str">
+      <c r="F3" s="42" t="str">
         <f t="shared" ref="F3:F15" si="4">RIGHT(A3,LEN(A3)-SEARCH("_",A3))</f>
         <v>MEDIUM</v>
       </c>
-      <c r="G3" s="43" t="str">
+      <c r="G3" s="42" t="str">
         <f t="shared" ref="G3:G15" si="5">SUBSTITUTE(A3,"-","|",2)</f>
         <v>191768-AC|NYC_MEDIUM</v>
       </c>
-      <c r="H3" s="43" t="str">
+      <c r="H3" s="42" t="str">
         <f t="shared" ref="H3:H15" si="6">MID(G3,SEARCH("|",G3)+1,3)</f>
         <v>NYC</v>
       </c>
@@ -18409,31 +18700,31 @@
       <c r="A4" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="43" t="str">
+      <c r="B4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>157263</v>
       </c>
-      <c r="C4" s="43" t="str">
+      <c r="C4" s="42" t="str">
         <f t="shared" si="1"/>
         <v>157263</v>
       </c>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E4" s="43" t="str">
+      <c r="E4" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F4" s="43" t="str">
+      <c r="F4" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G4" s="43" t="str">
+      <c r="G4" s="42" t="str">
         <f t="shared" si="5"/>
         <v>157263-BB|BOS_XL</v>
       </c>
-      <c r="H4" s="43" t="str">
+      <c r="H4" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -18442,31 +18733,31 @@
       <c r="A5" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="43" t="str">
+      <c r="B5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>173437</v>
       </c>
-      <c r="C5" s="43" t="str">
+      <c r="C5" s="42" t="str">
         <f t="shared" si="1"/>
         <v>1734372</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E5" s="43" t="str">
+      <c r="E5" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Small</v>
       </c>
-      <c r="F5" s="43" t="str">
+      <c r="F5" s="42" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G5" s="43" t="str">
+      <c r="G5" s="42" t="str">
         <f t="shared" si="5"/>
         <v>1734372-AA|CHI_SMALL</v>
       </c>
-      <c r="H5" s="43" t="str">
+      <c r="H5" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -18475,31 +18766,31 @@
       <c r="A6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="43" t="str">
+      <c r="B6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>135351</v>
       </c>
-      <c r="C6" s="43" t="str">
+      <c r="C6" s="42" t="str">
         <f t="shared" si="1"/>
         <v>135351</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E6" s="43" t="str">
+      <c r="E6" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F6" s="43" t="str">
+      <c r="F6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G6" s="43" t="str">
+      <c r="G6" s="42" t="str">
         <f t="shared" si="5"/>
         <v>135351-BC|NYC_XL</v>
       </c>
-      <c r="H6" s="43" t="str">
+      <c r="H6" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -18508,31 +18799,31 @@
       <c r="A7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="43" t="str">
+      <c r="B7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>143303</v>
       </c>
-      <c r="C7" s="43" t="str">
+      <c r="C7" s="42" t="str">
         <f t="shared" si="1"/>
         <v>14330305</v>
       </c>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E7" s="43" t="str">
+      <c r="E7" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F7" s="43" t="str">
+      <c r="F7" s="42" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G7" s="43" t="str">
+      <c r="G7" s="42" t="str">
         <f t="shared" si="5"/>
         <v>14330305-AC|BOS_LARGE</v>
       </c>
-      <c r="H7" s="43" t="str">
+      <c r="H7" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -18541,31 +18832,31 @@
       <c r="A8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="43" t="str">
+      <c r="B8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>177772</v>
       </c>
-      <c r="C8" s="43" t="str">
+      <c r="C8" s="42" t="str">
         <f t="shared" si="1"/>
         <v>177772</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="D8" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F8" s="43" t="str">
+      <c r="F8" s="42" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G8" s="43" t="str">
+      <c r="G8" s="42" t="str">
         <f t="shared" si="5"/>
         <v>177772-BB|NYC_MEDIUM</v>
       </c>
-      <c r="H8" s="43" t="str">
+      <c r="H8" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -18574,31 +18865,31 @@
       <c r="A9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="43" t="str">
+      <c r="B9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>871928</v>
       </c>
-      <c r="C9" s="43" t="str">
+      <c r="C9" s="42" t="str">
         <f t="shared" si="1"/>
         <v>87192837</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E9" s="43" t="str">
+      <c r="E9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G9" s="43" t="str">
+      <c r="G9" s="42" t="str">
         <f t="shared" si="5"/>
         <v>87192837-AB|CHI_XL</v>
       </c>
-      <c r="H9" s="43" t="str">
+      <c r="H9" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -18607,31 +18898,31 @@
       <c r="A10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="43" t="str">
+      <c r="B10" s="42" t="str">
         <f t="shared" si="0"/>
         <v>161266</v>
       </c>
-      <c r="C10" s="43" t="str">
+      <c r="C10" s="42" t="str">
         <f t="shared" si="1"/>
         <v>161266</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="D10" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E10" s="43" t="str">
+      <c r="E10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Small</v>
       </c>
-      <c r="F10" s="43" t="str">
+      <c r="F10" s="42" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G10" s="43" t="str">
+      <c r="G10" s="42" t="str">
         <f t="shared" si="5"/>
         <v>161266-BB|CHI_SMALL</v>
       </c>
-      <c r="H10" s="43" t="str">
+      <c r="H10" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -18640,31 +18931,31 @@
       <c r="A11" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="43" t="str">
+      <c r="B11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>122892</v>
       </c>
-      <c r="C11" s="43" t="str">
+      <c r="C11" s="42" t="str">
         <f t="shared" si="1"/>
         <v>122892</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E11" s="43" t="str">
+      <c r="E11" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F11" s="43" t="str">
+      <c r="F11" s="42" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G11" s="43" t="str">
+      <c r="G11" s="42" t="str">
         <f t="shared" si="5"/>
         <v>122892-AA|NYC_MEDIUM</v>
       </c>
-      <c r="H11" s="43" t="str">
+      <c r="H11" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -18673,31 +18964,31 @@
       <c r="A12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="42" t="str">
         <f t="shared" si="0"/>
         <v>128919</v>
       </c>
-      <c r="C12" s="43" t="str">
+      <c r="C12" s="42" t="str">
         <f t="shared" si="1"/>
         <v>128919</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E12" s="43" t="str">
+      <c r="E12" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F12" s="43" t="str">
+      <c r="F12" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G12" s="43" t="str">
+      <c r="G12" s="42" t="str">
         <f t="shared" si="5"/>
         <v>128919-AC|CHI_XL</v>
       </c>
-      <c r="H12" s="43" t="str">
+      <c r="H12" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -18706,31 +18997,31 @@
       <c r="A13" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="43" t="str">
+      <c r="B13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>191999</v>
       </c>
-      <c r="C13" s="43" t="str">
+      <c r="C13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>191999</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E13" s="43" t="str">
+      <c r="E13" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F13" s="43" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G13" s="43" t="str">
+      <c r="G13" s="42" t="str">
         <f t="shared" si="5"/>
         <v>191999-BB|BOS_LARGE</v>
       </c>
-      <c r="H13" s="43" t="str">
+      <c r="H13" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -18739,31 +19030,31 @@
       <c r="A14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="43" t="str">
+      <c r="B14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>117091</v>
       </c>
-      <c r="C14" s="43" t="str">
+      <c r="C14" s="42" t="str">
         <f t="shared" si="1"/>
         <v>117091126</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="D14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E14" s="43" t="str">
+      <c r="E14" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="F14" s="42" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="42" t="str">
         <f t="shared" si="5"/>
         <v>117091126-BC|NYC_LARGE</v>
       </c>
-      <c r="H14" s="43" t="str">
+      <c r="H14" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -18772,31 +19063,31 @@
       <c r="A15" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="43" t="str">
+      <c r="B15" s="42" t="str">
         <f t="shared" si="0"/>
         <v>112283</v>
       </c>
-      <c r="C15" s="43" t="str">
+      <c r="C15" s="42" t="str">
         <f t="shared" si="1"/>
         <v>112283</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E15" s="43" t="str">
+      <c r="E15" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F15" s="43" t="str">
+      <c r="F15" s="42" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G15" s="43" t="str">
+      <c r="G15" s="42" t="str">
         <f t="shared" si="5"/>
         <v>112283-AB|BOS_MEDIUM</v>
       </c>
-      <c r="H15" s="43" t="str">
+      <c r="H15" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>

--- a/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
+++ b/Excel Homework Workbooks/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgesoto/Desktop/Maven_Analytics/Excel Homework Workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9931C058-FA33-124E-B8E9-66A8C83C4D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40B5F41-B606-3045-B297-97754303EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27600" windowHeight="20120" tabRatio="709" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28320" windowHeight="20120" tabRatio="709" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -48,6 +48,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="234">
   <si>
@@ -789,8 +811,8 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="dddd"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1115,19 +1137,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,7 +1166,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1162,224 +1184,6 @@
         <u val="none"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6226,7 +6030,7 @@
       </c>
       <c r="C3" s="37">
         <f ca="1">TODAY()</f>
-        <v>44955</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6235,7 +6039,7 @@
       </c>
       <c r="C4" s="38">
         <f ca="1">NOW()</f>
-        <v>44955.879836921296</v>
+        <v>44957.610915046294</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6269,19 +6073,19 @@
       </c>
       <c r="D7" s="39">
         <f ca="1">DAY($C$4)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="39">
         <f ca="1">HOUR($C$4)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="39">
         <f ca="1">MINUTE($C$4)</f>
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G7" s="39">
         <f ca="1">SECOND($C$4)</f>
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6299,7 +6103,7 @@
       </c>
       <c r="C9" s="52">
         <f ca="1">WEEKDAY(C3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6312,7 +6116,7 @@
       </c>
       <c r="C11" s="37">
         <f ca="1">WORKDAY(C3,50)</f>
-        <v>45023</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6321,7 +6125,7 @@
       </c>
       <c r="C12" s="40">
         <f ca="1">NETWORKDAYS(C2,C3)</f>
-        <v>2107</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -6402,7 +6206,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -6472,7 +6276,7 @@
         <v>1204</v>
       </c>
       <c r="C3" s="54">
-        <f>B3-B2</f>
+        <f t="shared" ref="C3:C25" si="0">B3-B2</f>
         <v>105</v>
       </c>
       <c r="D3" s="54">
@@ -6485,7 +6289,7 @@
         <v>133</v>
       </c>
       <c r="G3" s="58">
-        <f t="shared" ref="G3:G25" si="0">E3/B3</f>
+        <f t="shared" ref="G3:G25" si="1">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
     </row>
@@ -6497,21 +6301,21 @@
         <v>1944</v>
       </c>
       <c r="C4" s="54">
-        <f>B4-B3</f>
+        <f t="shared" si="0"/>
         <v>740</v>
       </c>
       <c r="D4" s="54">
         <v>964</v>
       </c>
       <c r="E4" s="54">
-        <f t="shared" ref="E4:E25" si="1">B4-D4</f>
+        <f t="shared" ref="E4:E25" si="2">B4-D4</f>
         <v>980</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50411522633744854</v>
       </c>
     </row>
@@ -6523,21 +6327,21 @@
         <v>1743</v>
       </c>
       <c r="C5" s="54">
-        <f>B5-B4</f>
+        <f t="shared" si="0"/>
         <v>-201</v>
       </c>
       <c r="D5" s="54">
         <v>830</v>
       </c>
       <c r="E5" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>913</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G5" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52380952380952384</v>
       </c>
     </row>
@@ -6549,21 +6353,21 @@
         <v>1609</v>
       </c>
       <c r="C6" s="54">
-        <f>B6-B5</f>
+        <f t="shared" si="0"/>
         <v>-134</v>
       </c>
       <c r="D6" s="54">
         <v>910</v>
       </c>
       <c r="E6" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G6" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.43443132380360472</v>
       </c>
     </row>
@@ -6575,21 +6379,21 @@
         <v>1494</v>
       </c>
       <c r="C7" s="54">
-        <f>B7-B6</f>
+        <f t="shared" si="0"/>
         <v>-115</v>
       </c>
       <c r="D7" s="54">
         <v>909</v>
       </c>
       <c r="E7" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G7" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39156626506024095</v>
       </c>
     </row>
@@ -6601,21 +6405,21 @@
         <v>1959</v>
       </c>
       <c r="C8" s="54">
-        <f>B8-B7</f>
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="D8" s="54">
         <v>830</v>
       </c>
       <c r="E8" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1129</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G8" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57631444614599281</v>
       </c>
     </row>
@@ -6627,21 +6431,21 @@
         <v>1868</v>
       </c>
       <c r="C9" s="54">
-        <f>B9-B8</f>
+        <f t="shared" si="0"/>
         <v>-91</v>
       </c>
       <c r="D9" s="54">
         <v>906</v>
       </c>
       <c r="E9" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>962</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G9" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51498929336188437</v>
       </c>
     </row>
@@ -6653,21 +6457,21 @@
         <v>1162</v>
       </c>
       <c r="C10" s="54">
-        <f>B10-B9</f>
+        <f t="shared" si="0"/>
         <v>-706</v>
       </c>
       <c r="D10" s="54">
         <v>606</v>
       </c>
       <c r="E10" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>556</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47848537005163511</v>
       </c>
     </row>
@@ -6679,21 +6483,21 @@
         <v>1424</v>
       </c>
       <c r="C11" s="54">
-        <f>B11-B10</f>
+        <f t="shared" si="0"/>
         <v>262</v>
       </c>
       <c r="D11" s="54">
         <v>943</v>
       </c>
       <c r="E11" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>481</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3377808988764045</v>
       </c>
     </row>
@@ -6705,21 +6509,21 @@
         <v>1232</v>
       </c>
       <c r="C12" s="54">
-        <f>B12-B11</f>
+        <f t="shared" si="0"/>
         <v>-192</v>
       </c>
       <c r="D12" s="54">
         <v>801</v>
       </c>
       <c r="E12" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34983766233766234</v>
       </c>
     </row>
@@ -6731,21 +6535,21 @@
         <v>1738</v>
       </c>
       <c r="C13" s="54">
-        <f>B13-B12</f>
+        <f t="shared" si="0"/>
         <v>506</v>
       </c>
       <c r="D13" s="54">
         <v>786</v>
       </c>
       <c r="E13" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>952</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G13" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54775604142692746</v>
       </c>
     </row>
@@ -6757,21 +6561,21 @@
         <v>1435</v>
       </c>
       <c r="C14" s="54">
-        <f>B14-B13</f>
+        <f t="shared" si="0"/>
         <v>-303</v>
       </c>
       <c r="D14" s="54">
         <v>575</v>
       </c>
       <c r="E14" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>860</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5993031358885017</v>
       </c>
     </row>
@@ -6783,21 +6587,21 @@
         <v>1865</v>
       </c>
       <c r="C15" s="54">
-        <f>B15-B14</f>
+        <f t="shared" si="0"/>
         <v>430</v>
       </c>
       <c r="D15" s="54">
         <v>754</v>
       </c>
       <c r="E15" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G15" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59571045576407511</v>
       </c>
     </row>
@@ -6809,21 +6613,21 @@
         <v>1234</v>
       </c>
       <c r="C16" s="54">
-        <f>B16-B15</f>
+        <f t="shared" si="0"/>
         <v>-631</v>
       </c>
       <c r="D16" s="54">
         <v>599</v>
       </c>
       <c r="E16" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G16" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51458670988654787</v>
       </c>
     </row>
@@ -6835,21 +6639,21 @@
         <v>1577</v>
       </c>
       <c r="C17" s="54">
-        <f>B17-B16</f>
+        <f t="shared" si="0"/>
         <v>343</v>
       </c>
       <c r="D17" s="54">
         <v>940</v>
       </c>
       <c r="E17" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>637</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G17" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40393151553582751</v>
       </c>
     </row>
@@ -6861,21 +6665,21 @@
         <v>1983</v>
       </c>
       <c r="C18" s="54">
-        <f>B18-B17</f>
+        <f t="shared" si="0"/>
         <v>406</v>
       </c>
       <c r="D18" s="54">
         <v>954</v>
       </c>
       <c r="E18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1029</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51891074130105896</v>
       </c>
     </row>
@@ -6887,21 +6691,21 @@
         <v>1356</v>
       </c>
       <c r="C19" s="54">
-        <f>B19-B18</f>
+        <f t="shared" si="0"/>
         <v>-627</v>
       </c>
       <c r="D19" s="54">
         <v>577</v>
       </c>
       <c r="E19" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>779</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57448377581120946</v>
       </c>
     </row>
@@ -6913,7 +6717,7 @@
         <v>1874</v>
       </c>
       <c r="C20" s="54">
-        <f>B20-B19</f>
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="D20" s="54">
@@ -6926,7 +6730,7 @@
         <v>133</v>
       </c>
       <c r="G20" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47118463180362863</v>
       </c>
     </row>
@@ -6938,21 +6742,21 @@
         <v>1479</v>
       </c>
       <c r="C21" s="54">
-        <f>B21-B20</f>
+        <f t="shared" si="0"/>
         <v>-395</v>
       </c>
       <c r="D21" s="54">
         <v>588</v>
       </c>
       <c r="E21" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>891</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60243407707910746</v>
       </c>
     </row>
@@ -6964,7 +6768,7 @@
         <v>1943</v>
       </c>
       <c r="C22" s="54">
-        <f>B22-B21</f>
+        <f t="shared" si="0"/>
         <v>464</v>
       </c>
       <c r="D22" s="54">
@@ -6977,7 +6781,7 @@
         <v>133</v>
       </c>
       <c r="G22" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36644364384971695</v>
       </c>
     </row>
@@ -6989,21 +6793,21 @@
         <v>1444</v>
       </c>
       <c r="C23" s="54">
-        <f>B23-B22</f>
+        <f t="shared" si="0"/>
         <v>-499</v>
       </c>
       <c r="D23" s="54">
         <v>657</v>
       </c>
       <c r="E23" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>787</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G23" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54501385041551242</v>
       </c>
     </row>
@@ -7015,21 +6819,21 @@
         <v>1493</v>
       </c>
       <c r="C24" s="54">
-        <f>B24-B23</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D24" s="54">
         <v>880</v>
       </c>
       <c r="E24" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>613</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G24" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4105827193569993</v>
       </c>
     </row>
@@ -7041,21 +6845,21 @@
         <v>1738</v>
       </c>
       <c r="C25" s="54">
-        <f>B25-B24</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="D25" s="54">
         <v>580</v>
       </c>
       <c r="E25" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1158</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
       <c r="G25" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
@@ -7073,12 +6877,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A25">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>G2&lt;0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:F25">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$F2="Kids"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7119,8 +6923,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7188,15 +6992,29 @@
       <c r="E2" s="8">
         <v>22873</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="G2" s="42" t="str" cm="1">
+        <f t="array" ref="G2:K16">_xlfn._xlws.SORT(A2:E16,{2,5},{1,-1})</f>
+        <v>Kathy</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J2" s="8">
+        <v>18270</v>
+      </c>
+      <c r="K2" s="8">
+        <v>22873</v>
+      </c>
       <c r="M2" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="39" t="str" cm="1">
+        <f t="array" ref="N2">_xlfn._xlws.FILTER(A2:A16,E2:E16=MAX(E2:E16))</f>
+        <v>Sam</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -7214,11 +7032,21 @@
       <c r="E3" s="8">
         <v>21279</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="2" t="str">
+        <v>John</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J3" s="8">
+        <v>20510</v>
+      </c>
+      <c r="K3" s="8">
+        <v>21279</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -7236,11 +7064,21 @@
       <c r="E4" s="8">
         <v>13096</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="2" t="str">
+        <v>Mindy</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J4" s="8">
+        <v>15972</v>
+      </c>
+      <c r="K4" s="8">
+        <v>13096</v>
+      </c>
       <c r="M4" s="48" t="s">
         <v>208</v>
       </c>
@@ -7264,13 +7102,29 @@
       <c r="E5" s="8">
         <v>10990</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="41"/>
+      <c r="G5" s="2" t="str">
+        <v>Aaron</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J5" s="8">
+        <v>17347</v>
+      </c>
+      <c r="K5" s="8">
+        <v>10990</v>
+      </c>
+      <c r="M5" s="42" t="str" cm="1">
+        <f t="array" ref="M5:M6">_xlfn._xlws.SORT(_xlfn.UNIQUE(C2:C16))</f>
+        <v>Apparel</v>
+      </c>
+      <c r="N5" s="41" cm="1">
+        <f t="array" ref="N5:N6">SUMIFS(E2:E16,C2:C16,_xlfn.ANCHORARRAY(M5))</f>
+        <v>136990</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -7288,13 +7142,27 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="8"/>
+      <c r="G6" s="49" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J6" s="8">
+        <v>26508</v>
+      </c>
+      <c r="K6" s="8">
+        <v>28682</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="N6" s="8">
+        <v>162245</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -7312,11 +7180,21 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="G7" s="49" t="str">
+        <v>Jean</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J7" s="8">
+        <v>23810</v>
+      </c>
+      <c r="K7" s="8">
+        <v>28543</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -7334,16 +7212,26 @@
       <c r="E8" s="8">
         <v>15414</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="G8" s="2" t="str">
+        <v>Tina</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J8" s="8">
+        <v>19325</v>
+      </c>
+      <c r="K8" s="8">
+        <v>26697</v>
+      </c>
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -7362,11 +7250,21 @@
       <c r="E9" s="8">
         <v>21973</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="2" t="str">
+        <v>Kim</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J9" s="8">
+        <v>29120</v>
+      </c>
+      <c r="K9" s="8">
+        <v>21824</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -7384,11 +7282,21 @@
       <c r="E10" s="8">
         <v>18721</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="G10" s="2" t="str">
+        <v>Ashley</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J10" s="8">
+        <v>17872</v>
+      </c>
+      <c r="K10" s="8">
+        <v>17631</v>
+      </c>
       <c r="M10" s="48" t="s">
         <v>206</v>
       </c>
@@ -7421,16 +7329,37 @@
       <c r="E11" s="8">
         <v>25897</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="G11" s="2" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J11" s="8">
+        <v>25347</v>
+      </c>
+      <c r="K11" s="8">
+        <v>25897</v>
+      </c>
+      <c r="M11" s="42" t="str" cm="1">
+        <f t="array" ref="M11:Q14">_xlfn._xlws.FILTER(A2:E16,(B2:B16=N8)*(D2:D16&lt;E2:E16))</f>
+        <v>Tom</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="P11" s="8">
+        <v>13190</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>15332</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -7448,16 +7377,36 @@
       <c r="E12" s="8">
         <v>21824</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="G12" s="2" t="str">
+        <v>Lauren</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J12" s="8">
+        <v>19588</v>
+      </c>
+      <c r="K12" s="8">
+        <v>21973</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <v>Lauren</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="P12" s="8">
+        <v>19588</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>21973</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -7475,16 +7424,36 @@
       <c r="E13" s="8">
         <v>26697</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="G13" s="2" t="str">
+        <v>Jason</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J13" s="8">
+        <v>15769</v>
+      </c>
+      <c r="K13" s="8">
+        <v>18721</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <v>Jason</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="P13" s="8">
+        <v>15769</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>18721</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -7502,16 +7471,36 @@
       <c r="E14" s="8">
         <v>28543</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="G14" s="2" t="str">
+        <v>Bill</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J14" s="8">
+        <v>17585</v>
+      </c>
+      <c r="K14" s="8">
+        <v>15414</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="P14" s="8">
+        <v>25347</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>25897</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -7529,11 +7518,21 @@
       <c r="E15" s="8">
         <v>28682</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="G15" s="2" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J15" s="8">
+        <v>13190</v>
+      </c>
+      <c r="K15" s="8">
+        <v>15332</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -7551,11 +7550,21 @@
       <c r="E16" s="8">
         <v>17631</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="G16" s="2" t="str">
+        <v>Phil</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J16" s="8">
+        <v>19635</v>
+      </c>
+      <c r="K16" s="8">
+        <v>10283</v>
+      </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.2">
       <c r="M17" s="48" t="s">
@@ -7566,16 +7575,34 @@
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M18" s="42"/>
-      <c r="N18" s="30"/>
+      <c r="M18" s="42" t="str" cm="1">
+        <f t="array" ref="M18:N20">_xlfn.LET(_xlpm.office,_xlfn.UNIQUE(B2:B16),
+_xlpm.sales2015,SUMIFS(D2:D16,B2:B16,_xlpm.office),
+_xlpm.sales2016,SUMIFS(E2:E16,B2:B16,_xlpm.office),
+_xlpm.growth,_xlpm.sales2016-_xlpm.sales2015,
+_xlpm.array,CHOOSE({1,2},_xlpm.office,_xlpm.growth),
+_xlfn._xlws.SORT(_xlpm.array,2,-1))</f>
+        <v>CHI</v>
+      </c>
+      <c r="N18" s="30">
+        <v>6742</v>
+      </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M19" s="2"/>
-      <c r="N19" s="30"/>
+      <c r="M19" s="2" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="N19" s="30">
+        <v>-3494</v>
+      </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M20" s="2"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="2" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="N20" s="30">
+        <v>-3861</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
